--- a/Test Execution/Prapancha/Test Case- EMR IP_Reviewed.xlsx
+++ b/Test Execution/Prapancha/Test Case- EMR IP_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Prapancha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C6EC8-E1EA-401C-B7F8-3C518375A41F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876E21C-343E-4F43-BD62-427894F75F73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="540">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1312,10 +1312,6 @@
 Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate till Allergies and verify the content display
-Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter data in mandatory fields and click on save option
 Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
   </si>
@@ -1342,22 +1338,6 @@
   <si>
     <t xml:space="preserve">Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the lab result
 Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.
-Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
-</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.
-Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
-Navigate till  Discharge request</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.
-Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
-Navigate till  Surgery request
-Verify alignment and page contents</t>
   </si>
   <si>
     <t xml:space="preserve">Click on Diagnosis view option
@@ -1385,11 +1365,6 @@
   <si>
     <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Discharge prescription
-Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Discharge summary
 Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
   </si>
   <si>
@@ -2260,6 +2235,90 @@
     <t xml:space="preserve">Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Discharge Summary  and verify the contents.
 Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
 </t>
+  </si>
+  <si>
+    <t>PACS Result View is not working</t>
+  </si>
+  <si>
+    <t>EQ1-I144</t>
+  </si>
+  <si>
+    <t>EQ1-I141</t>
+  </si>
+  <si>
+    <t>Navigate till Allergies and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP &gt;&gt;General Entries&gt;&gt;Allergies</t>
+  </si>
+  <si>
+    <t>Unable to save Prescription</t>
+  </si>
+  <si>
+    <t>"No known allergy "Checkbox is unable to select</t>
+  </si>
+  <si>
+    <t>No field under general entries</t>
+  </si>
+  <si>
+    <t>EQ1-I229</t>
+  </si>
+  <si>
+    <t>EQ1-I347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP Treatment summary field is absent when log in as a user with
+User Name:drallsn
+pw:123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge summary field is absent when log in as a user with
+User Name:drallsn
+pw:123
+</t>
+  </si>
+  <si>
+    <t>EQ1-I340</t>
+  </si>
+  <si>
+    <t>EQ1-I348</t>
+  </si>
+  <si>
+    <t>Same as Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
+Navigate till  Surgery request
+Verify alignment and page contents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
+Navigate till  Discharge request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General Request&gt;&gt;Reference Request
+</t>
+  </si>
+  <si>
+    <t>EQ1-I360</t>
+  </si>
+  <si>
+    <t>No field under General Request for user login 
+User Name:drallan
+pw:123</t>
+  </si>
+  <si>
+    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Discharge summary
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge Summary</t>
+  </si>
+  <si>
+    <t>EQ1-I368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field is missing under discharge summary </t>
   </si>
 </sst>
 </file>
@@ -2611,6 +2670,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2628,9 +2690,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2950,8 +3009,8 @@
   <dimension ref="A1:S934"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L330" sqref="L330"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G384" sqref="A309:H384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -3021,15 +3080,15 @@
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="7"/>
@@ -3055,28 +3114,28 @@
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="9"/>
@@ -3091,21 +3150,21 @@
       <c r="A4" s="9"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="15">
         <v>2</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="9"/>
@@ -3120,15 +3179,15 @@
       <c r="A5" s="9"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="15">
         <v>3</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="9"/>
@@ -3145,7 +3204,7 @@
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="15">
         <v>4</v>
       </c>
@@ -3156,7 +3215,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="10"/>
@@ -3167,21 +3226,21 @@
       </c>
       <c r="P6" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="S6" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="15">
         <v>5</v>
       </c>
@@ -3192,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>38</v>
@@ -3210,12 +3269,12 @@
       </c>
       <c r="S7" s="14">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="15">
         <v>6</v>
       </c>
@@ -3226,7 +3285,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
@@ -3238,12 +3297,12 @@
       </c>
       <c r="S8" s="14">
         <f>COUNTA(M:M)-1</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="15">
         <v>7</v>
       </c>
@@ -3251,16 +3310,16 @@
         <v>40</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="15">
         <v>8</v>
       </c>
@@ -3271,13 +3330,13 @@
         <v>26</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="15">
         <v>9</v>
       </c>
@@ -3288,10 +3347,10 @@
         <v>43</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>16</v>
@@ -3306,15 +3365,15 @@
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="54" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="7"/>
@@ -3327,21 +3386,21 @@
       <c r="A14" s="9"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -3349,21 +3408,21 @@
       <c r="A15" s="9"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="53"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="7">
         <v>2</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -3371,24 +3430,24 @@
       <c r="A16" s="9"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="7">
         <v>3</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="D17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="7">
         <v>4</v>
       </c>
@@ -3399,14 +3458,14 @@
         <v>37</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I17" s="16"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="7">
         <v>5</v>
       </c>
@@ -3417,14 +3476,14 @@
         <v>20</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J18" s="10"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="7">
         <v>6</v>
       </c>
@@ -3435,13 +3494,13 @@
         <v>48</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="D20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="7">
         <v>7</v>
       </c>
@@ -3452,13 +3511,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="7">
         <v>8</v>
       </c>
@@ -3469,13 +3528,13 @@
         <v>52</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="7">
         <v>9</v>
       </c>
@@ -3486,13 +3545,13 @@
         <v>54</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="7">
         <v>10</v>
       </c>
@@ -3503,10 +3562,10 @@
         <v>56</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>16</v>
@@ -3522,20 +3581,20 @@
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>269</v>
+      <c r="D25" s="56" t="s">
+        <v>264</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="44" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -3543,21 +3602,21 @@
       <c r="A26" s="9"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L26" s="10"/>
     </row>
@@ -3565,21 +3624,21 @@
       <c r="A27" s="9"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="7">
         <v>2</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L27" s="10"/>
     </row>
@@ -3587,18 +3646,18 @@
       <c r="A28" s="9"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="7">
         <v>3</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L28" s="10"/>
     </row>
@@ -3606,41 +3665,41 @@
       <c r="A29" s="9"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="55"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="7">
         <v>4</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G29" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="D30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="7">
         <v>5</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G30" s="44" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="7">
         <v>6</v>
       </c>
@@ -3651,32 +3710,32 @@
         <v>60</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
-      <c r="D32" s="55"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="7">
         <v>7</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="D33" s="55"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="7">
         <v>8</v>
       </c>
@@ -3688,7 +3747,7 @@
       </c>
       <c r="H33" s="52"/>
       <c r="K33" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>18</v>
@@ -3703,20 +3762,20 @@
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="54" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L35" s="10"/>
     </row>
@@ -3724,21 +3783,21 @@
       <c r="A36" s="9"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="7">
         <v>1</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -3746,21 +3805,21 @@
       <c r="A37" s="9"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="53"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="7">
         <v>2</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L37" s="10"/>
     </row>
@@ -3768,18 +3827,18 @@
       <c r="A38" s="9"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="53"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="7">
         <v>3</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -3787,24 +3846,24 @@
       <c r="A39" s="9"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="53"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="7">
         <v>4</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="D40" s="53"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="7">
         <v>5</v>
       </c>
@@ -3815,11 +3874,11 @@
         <v>65</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I40" s="16"/>
       <c r="K40" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>16</v>
@@ -3836,20 +3895,20 @@
     </row>
     <row r="42" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="54" t="s">
         <v>68</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -3857,21 +3916,21 @@
       <c r="A43" s="37"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="53"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="7">
         <v>1</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L43" s="38"/>
     </row>
@@ -3879,21 +3938,21 @@
       <c r="A44" s="9"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="53"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="7">
         <v>2</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -3901,18 +3960,18 @@
       <c r="A45" s="9"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="53"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="7">
         <v>3</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L45" s="10"/>
     </row>
@@ -3920,18 +3979,18 @@
       <c r="A46" s="9"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="53"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="7">
         <v>4</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G46" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L46" s="10"/>
     </row>
@@ -3939,21 +3998,21 @@
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="53"/>
+      <c r="D47" s="54"/>
       <c r="E47" s="7">
         <v>5</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G47" s="44" t="s">
         <v>70</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>16</v>
@@ -3970,10 +4029,10 @@
     </row>
     <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>14</v>
@@ -3983,7 +4042,7 @@
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L49" s="10"/>
     </row>
@@ -3996,16 +4055,16 @@
         <v>1</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L50" s="10"/>
     </row>
@@ -4018,16 +4077,16 @@
         <v>2</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L51" s="10"/>
     </row>
@@ -4040,13 +4099,13 @@
         <v>3</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L52" s="10"/>
     </row>
@@ -4059,13 +4118,13 @@
         <v>4</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G53" s="44" t="s">
         <v>57</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L53" s="10"/>
     </row>
@@ -4084,7 +4143,7 @@
         <v>70</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L54" s="10"/>
     </row>
@@ -4095,13 +4154,13 @@
         <v>6</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I55" s="16"/>
       <c r="L55" s="10"/>
@@ -4113,11 +4172,11 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="H56" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I56" s="16"/>
       <c r="K56" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>16</v>
@@ -4125,20 +4184,20 @@
     </row>
     <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="54" t="s">
         <v>71</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L57" s="10"/>
     </row>
@@ -4146,21 +4205,21 @@
       <c r="A58" s="9"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="53"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="7">
         <v>1</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G58" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L58" s="10"/>
     </row>
@@ -4168,21 +4227,21 @@
       <c r="A59" s="9"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="53"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="7">
         <v>2</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L59" s="10"/>
     </row>
@@ -4190,18 +4249,18 @@
       <c r="A60" s="9"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="53"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="7">
         <v>3</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L60" s="10"/>
     </row>
@@ -4209,25 +4268,25 @@
       <c r="A61" s="9"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="53"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="7">
         <v>4</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G61" s="44" t="s">
         <v>37</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I61" s="16"/>
       <c r="L61" s="10"/>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
-      <c r="D62" s="53"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="7">
         <v>5</v>
       </c>
@@ -4238,10 +4297,10 @@
         <v>73</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>16</v>
@@ -4257,15 +4316,15 @@
     </row>
     <row r="64" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="7"/>
@@ -4278,21 +4337,21 @@
       <c r="A65" s="9"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="53"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="7">
         <v>1</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L65" s="10"/>
     </row>
@@ -4300,21 +4359,21 @@
       <c r="A66" s="9"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="53"/>
+      <c r="D66" s="54"/>
       <c r="E66" s="7">
         <v>2</v>
       </c>
       <c r="F66" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G66" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L66" s="10"/>
     </row>
@@ -4322,18 +4381,18 @@
       <c r="A67" s="9"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="53"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="7">
         <v>3</v>
       </c>
       <c r="F67" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I67" s="16"/>
       <c r="L67" s="10"/>
@@ -4342,25 +4401,25 @@
       <c r="A68" s="9"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
-      <c r="D68" s="53"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="7">
         <v>4</v>
       </c>
       <c r="F68" s="44" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G68" s="44" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I68" s="16"/>
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-      <c r="D69" s="53"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="7">
         <v>5</v>
       </c>
@@ -4371,14 +4430,14 @@
         <v>29</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J69" s="10"/>
       <c r="L69" s="10"/>
     </row>
     <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="D70" s="53"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="7">
         <v>6</v>
       </c>
@@ -4389,13 +4448,13 @@
         <v>75</v>
       </c>
       <c r="H70" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L70" s="10"/>
     </row>
     <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="D71" s="53"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="7">
         <v>7</v>
       </c>
@@ -4406,16 +4465,16 @@
         <v>32</v>
       </c>
       <c r="H71" s="44" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="D72" s="53"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="7">
         <v>8</v>
       </c>
@@ -4430,7 +4489,7 @@
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="D73" s="53"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="7">
         <v>9</v>
       </c>
@@ -4444,7 +4503,7 @@
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="D74" s="53"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="7">
         <v>10</v>
       </c>
@@ -4458,12 +4517,12 @@
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="D75" s="53"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="7">
         <v>11</v>
       </c>
       <c r="F75" s="44" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G75" s="44" t="s">
         <v>81</v>
@@ -4471,7 +4530,7 @@
       <c r="H75" s="52"/>
       <c r="I75" s="16"/>
       <c r="K75" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>18</v>
@@ -4488,20 +4547,20 @@
     </row>
     <row r="77" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="54" t="s">
-        <v>423</v>
+      <c r="D77" s="55" t="s">
+        <v>418</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I77" s="16"/>
       <c r="L77" s="10"/>
@@ -4510,21 +4569,21 @@
       <c r="A78" s="9"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="54"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="7">
         <v>1</v>
       </c>
       <c r="F78" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G78" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H78" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L78" s="10"/>
     </row>
@@ -4532,21 +4591,21 @@
       <c r="A79" s="9"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="54"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="7">
         <v>2</v>
       </c>
       <c r="F79" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G79" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I79" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L79" s="10"/>
     </row>
@@ -4554,18 +4613,18 @@
       <c r="A80" s="9"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="54"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="7">
         <v>3</v>
       </c>
       <c r="F80" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G80" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H80" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I80" s="16"/>
       <c r="L80" s="10"/>
@@ -4574,18 +4633,18 @@
       <c r="A81" s="9"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="54"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="7">
         <v>4</v>
       </c>
       <c r="F81" s="44" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G81" s="44" t="s">
         <v>37</v>
       </c>
       <c r="H81" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I81" s="16"/>
       <c r="L81" s="10"/>
@@ -4594,22 +4653,22 @@
       <c r="A82" s="9"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
-      <c r="D82" s="54"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="42">
         <v>5</v>
       </c>
       <c r="F82" s="44" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G82" s="44" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H82" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I82" s="16"/>
       <c r="K82" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>16</v>
@@ -4626,20 +4685,20 @@
     </row>
     <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="54" t="s">
-        <v>427</v>
+      <c r="D84" s="55" t="s">
+        <v>422</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="44" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I84" s="16"/>
       <c r="L84" s="10"/>
@@ -4648,18 +4707,18 @@
       <c r="A85" s="9"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
-      <c r="D85" s="54"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="7">
         <v>1</v>
       </c>
       <c r="F85" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G85" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H85" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I85" s="16" t="s">
         <v>27</v>
@@ -4670,21 +4729,21 @@
       <c r="A86" s="9"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
-      <c r="D86" s="54"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="7">
         <v>2</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H86" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L86" s="10"/>
     </row>
@@ -4692,18 +4751,18 @@
       <c r="A87" s="9"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="54"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="7">
         <v>3</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L87" s="10"/>
     </row>
@@ -4711,93 +4770,93 @@
       <c r="A88" s="9"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="54"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="7">
         <v>4</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H88" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L88" s="10"/>
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="D89" s="54"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="7">
         <v>5</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G89" s="44" t="s">
         <v>82</v>
       </c>
       <c r="H89" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I89" s="18"/>
       <c r="L89" s="10"/>
     </row>
     <row r="90" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="D90" s="54"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="7">
         <v>6</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G90" s="44" t="s">
         <v>83</v>
       </c>
       <c r="H90" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L90" s="10"/>
     </row>
     <row r="91" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="D91" s="54"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="7">
         <v>7</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G91" s="44" t="s">
         <v>84</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L91" s="10"/>
     </row>
     <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="D92" s="54"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="7">
         <v>8</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G92" s="44" t="s">
         <v>85</v>
       </c>
       <c r="H92" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L92" s="10"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="D93" s="54"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="7">
         <v>9</v>
       </c>
@@ -4808,13 +4867,13 @@
         <v>87</v>
       </c>
       <c r="H93" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L93" s="10"/>
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="D94" s="54"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="7">
         <v>10</v>
       </c>
@@ -4825,10 +4884,10 @@
         <v>89</v>
       </c>
       <c r="H94" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>16</v>
@@ -4844,20 +4903,20 @@
     </row>
     <row r="96" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="53" t="s">
+      <c r="D96" s="54" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="44" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L96" s="10"/>
     </row>
@@ -4865,21 +4924,21 @@
       <c r="A97" s="9"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
-      <c r="D97" s="53"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="7">
         <v>1</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G97" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H97" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L97" s="10"/>
     </row>
@@ -4887,21 +4946,21 @@
       <c r="A98" s="9"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
-      <c r="D98" s="53"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="7">
         <v>2</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G98" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H98" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L98" s="10"/>
     </row>
@@ -4909,36 +4968,36 @@
       <c r="A99" s="9"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
-      <c r="D99" s="53"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="7">
         <v>3</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H99" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I99" s="18"/>
       <c r="L99" s="10"/>
     </row>
     <row r="100" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="D100" s="53"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="7">
         <v>4</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G100" s="44" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H100" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L100" s="10"/>
     </row>
@@ -4946,18 +5005,18 @@
       <c r="A101" s="7"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="53"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="7">
         <v>5</v>
       </c>
       <c r="F101" s="44" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G101" s="44" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H101" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I101" s="18"/>
       <c r="L101" s="10"/>
@@ -4966,18 +5025,18 @@
       <c r="A102" s="7"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
-      <c r="D102" s="53"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="7">
         <v>6</v>
       </c>
       <c r="F102" s="44" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G102" s="44" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H102" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I102" s="18"/>
       <c r="L102" s="10"/>
@@ -4986,18 +5045,18 @@
       <c r="A103" s="7"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
-      <c r="D103" s="53"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="7">
         <v>7</v>
       </c>
       <c r="F103" s="44" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G103" s="44" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I103" s="18"/>
       <c r="L103" s="10"/>
@@ -5006,22 +5065,22 @@
       <c r="A104" s="7"/>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
-      <c r="D104" s="53"/>
+      <c r="D104" s="54"/>
       <c r="E104" s="7">
         <v>8</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G104" s="44" t="s">
         <v>91</v>
       </c>
       <c r="H104" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I104" s="18"/>
       <c r="K104" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>16</v>
@@ -5037,20 +5096,20 @@
     </row>
     <row r="106" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="54" t="s">
-        <v>439</v>
+      <c r="D106" s="55" t="s">
+        <v>434</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="44" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L106" s="10"/>
     </row>
@@ -5058,21 +5117,21 @@
       <c r="A107" s="9"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="54"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="7">
         <v>1</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G107" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H107" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L107" s="10"/>
     </row>
@@ -5080,21 +5139,21 @@
       <c r="A108" s="9"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
-      <c r="D108" s="54"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="7">
         <v>2</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G108" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H108" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I108" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L108" s="10"/>
     </row>
@@ -5102,25 +5161,25 @@
       <c r="A109" s="9"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
-      <c r="D109" s="54"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="7">
         <v>3</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G109" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H109" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I109" s="18"/>
       <c r="L109" s="10"/>
     </row>
     <row r="110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
-      <c r="D110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="7">
         <v>4</v>
       </c>
@@ -5131,11 +5190,11 @@
         <v>93</v>
       </c>
       <c r="H110" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I110" s="16"/>
       <c r="K110" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>16</v>
@@ -5147,27 +5206,27 @@
       <c r="C111" s="31"/>
       <c r="E111" s="7"/>
       <c r="H111" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I111" s="16"/>
       <c r="L111" s="10"/>
     </row>
     <row r="112" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="55" t="s">
-        <v>270</v>
+      <c r="D112" s="56" t="s">
+        <v>265</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="44" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L112" s="10"/>
     </row>
@@ -5175,21 +5234,21 @@
       <c r="A113" s="9"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
-      <c r="D113" s="55"/>
+      <c r="D113" s="56"/>
       <c r="E113" s="7">
         <v>1</v>
       </c>
       <c r="F113" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G113" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L113" s="10"/>
     </row>
@@ -5197,21 +5256,21 @@
       <c r="A114" s="9"/>
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
-      <c r="D114" s="55"/>
+      <c r="D114" s="56"/>
       <c r="E114" s="7">
         <v>2</v>
       </c>
       <c r="F114" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G114" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H114" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I114" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L114" s="10"/>
     </row>
@@ -5219,18 +5278,18 @@
       <c r="A115" s="9"/>
       <c r="B115" s="40"/>
       <c r="C115" s="40"/>
-      <c r="D115" s="55"/>
+      <c r="D115" s="56"/>
       <c r="E115" s="7">
         <v>3</v>
       </c>
       <c r="F115" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G115" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H115" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I115" s="18"/>
       <c r="L115" s="10"/>
@@ -5239,38 +5298,38 @@
       <c r="A116" s="9"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
-      <c r="D116" s="55"/>
+      <c r="D116" s="56"/>
       <c r="E116" s="7">
         <v>4</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G116" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H116" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L116" s="10"/>
     </row>
     <row r="117" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="D117" s="55"/>
+      <c r="D117" s="56"/>
       <c r="E117" s="7">
         <v>5</v>
       </c>
       <c r="F117" s="44" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>16</v>
@@ -5286,80 +5345,80 @@
     </row>
     <row r="119" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="55" t="s">
-        <v>445</v>
+      <c r="D119" s="56" t="s">
+        <v>440</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="44" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L119" s="10"/>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="40"/>
       <c r="C120" s="40"/>
-      <c r="D120" s="55"/>
+      <c r="D120" s="56"/>
       <c r="E120" s="7">
         <v>1</v>
       </c>
       <c r="F120" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G120" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H120" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L120" s="10"/>
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="40"/>
       <c r="C121" s="40"/>
-      <c r="D121" s="55"/>
+      <c r="D121" s="56"/>
       <c r="E121" s="7">
         <v>2</v>
       </c>
       <c r="F121" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G121" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I121" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L121" s="10"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
-      <c r="D122" s="55"/>
+      <c r="D122" s="56"/>
       <c r="E122" s="7">
         <v>3</v>
       </c>
       <c r="F122" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G122" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H122" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I122" s="18"/>
       <c r="L122" s="10"/>
@@ -5367,38 +5426,38 @@
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="40"/>
       <c r="C123" s="40"/>
-      <c r="D123" s="55"/>
+      <c r="D123" s="56"/>
       <c r="E123" s="7">
         <v>4</v>
       </c>
       <c r="F123" s="44" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G123" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L123" s="10"/>
     </row>
     <row r="124" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="D124" s="55"/>
+      <c r="D124" s="56"/>
       <c r="E124" s="35">
         <v>5</v>
       </c>
       <c r="F124" s="44" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G124" s="44" t="s">
         <v>94</v>
       </c>
       <c r="H124" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>16</v>
@@ -5414,20 +5473,20 @@
     </row>
     <row r="126" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="53" t="s">
-        <v>444</v>
+      <c r="D126" s="54" t="s">
+        <v>439</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="44" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L126" s="10"/>
     </row>
@@ -5435,21 +5494,21 @@
       <c r="A127" s="9"/>
       <c r="B127" s="40"/>
       <c r="C127" s="40"/>
-      <c r="D127" s="53"/>
+      <c r="D127" s="54"/>
       <c r="E127" s="7">
         <v>1</v>
       </c>
       <c r="F127" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G127" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H127" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L127" s="10"/>
     </row>
@@ -5457,21 +5516,21 @@
       <c r="A128" s="9"/>
       <c r="B128" s="40"/>
       <c r="C128" s="40"/>
-      <c r="D128" s="53"/>
+      <c r="D128" s="54"/>
       <c r="E128" s="7">
         <v>2</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G128" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H128" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I128" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L128" s="10"/>
     </row>
@@ -5479,18 +5538,18 @@
       <c r="A129" s="9"/>
       <c r="B129" s="40"/>
       <c r="C129" s="40"/>
-      <c r="D129" s="53"/>
+      <c r="D129" s="54"/>
       <c r="E129" s="7">
         <v>3</v>
       </c>
       <c r="F129" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H129" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I129" s="18"/>
       <c r="L129" s="10"/>
@@ -5499,18 +5558,18 @@
       <c r="A130" s="9"/>
       <c r="B130" s="40"/>
       <c r="C130" s="40"/>
-      <c r="D130" s="53"/>
+      <c r="D130" s="54"/>
       <c r="E130" s="7">
         <v>4</v>
       </c>
       <c r="F130" s="44" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G130" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H130" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L130" s="10"/>
     </row>
@@ -5521,16 +5580,16 @@
         <v>5</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G131" s="44" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H131" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L131" s="10" t="s">
         <v>16</v>
@@ -5546,20 +5605,20 @@
     </row>
     <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="53" t="s">
-        <v>455</v>
+      <c r="D133" s="54" t="s">
+        <v>450</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="44" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G133" s="44" t="s">
         <v>95</v>
@@ -5570,21 +5629,21 @@
       <c r="A134" s="9"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
-      <c r="D134" s="53"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="7">
         <v>1</v>
       </c>
       <c r="F134" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G134" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H134" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L134" s="10"/>
     </row>
@@ -5592,21 +5651,21 @@
       <c r="A135" s="9"/>
       <c r="B135" s="40"/>
       <c r="C135" s="40"/>
-      <c r="D135" s="53"/>
+      <c r="D135" s="54"/>
       <c r="E135" s="7">
         <v>2</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G135" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H135" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L135" s="10"/>
     </row>
@@ -5614,18 +5673,18 @@
       <c r="A136" s="9"/>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
-      <c r="D136" s="53"/>
+      <c r="D136" s="54"/>
       <c r="E136" s="7">
         <v>3</v>
       </c>
       <c r="F136" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G136" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H136" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I136" s="18"/>
       <c r="L136" s="10"/>
@@ -5634,18 +5693,18 @@
       <c r="A137" s="9"/>
       <c r="B137" s="40"/>
       <c r="C137" s="40"/>
-      <c r="D137" s="53"/>
+      <c r="D137" s="54"/>
       <c r="E137" s="7">
         <v>4</v>
       </c>
       <c r="F137" s="44" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G137" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H137" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L137" s="10"/>
     </row>
@@ -5653,18 +5712,18 @@
       <c r="A138" s="9"/>
       <c r="B138" s="40"/>
       <c r="C138" s="40"/>
-      <c r="D138" s="53"/>
+      <c r="D138" s="54"/>
       <c r="E138" s="7">
         <v>5</v>
       </c>
       <c r="F138" s="44" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G138" s="44" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H138" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L138" s="10"/>
     </row>
@@ -5672,38 +5731,38 @@
       <c r="A139" s="9"/>
       <c r="B139" s="40"/>
       <c r="C139" s="40"/>
-      <c r="D139" s="53"/>
+      <c r="D139" s="54"/>
       <c r="E139" s="7">
         <v>6</v>
       </c>
       <c r="F139" s="44" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G139" s="44" t="s">
         <v>96</v>
       </c>
       <c r="H139" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L139" s="10"/>
     </row>
     <row r="140" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="D140" s="53"/>
+      <c r="D140" s="54"/>
       <c r="E140" s="7">
         <v>7</v>
       </c>
       <c r="F140" s="44" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G140" s="44" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H140" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L140" s="10" t="s">
         <v>16</v>
@@ -5719,20 +5778,20 @@
     </row>
     <row r="142" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="53" t="s">
-        <v>454</v>
+      <c r="D142" s="54" t="s">
+        <v>449</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="44" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G142" s="44" t="s">
         <v>95</v>
@@ -5743,21 +5802,21 @@
       <c r="A143" s="9"/>
       <c r="B143" s="40"/>
       <c r="C143" s="40"/>
-      <c r="D143" s="53"/>
+      <c r="D143" s="54"/>
       <c r="E143" s="7">
         <v>1</v>
       </c>
       <c r="F143" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G143" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H143" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L143" s="10"/>
     </row>
@@ -5765,126 +5824,126 @@
       <c r="A144" s="9"/>
       <c r="B144" s="40"/>
       <c r="C144" s="40"/>
-      <c r="D144" s="53"/>
+      <c r="D144" s="54"/>
       <c r="E144" s="7">
         <v>2</v>
       </c>
       <c r="F144" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G144" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H144" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I144" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L144" s="10"/>
     </row>
-    <row r="145" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="40"/>
       <c r="C145" s="40"/>
-      <c r="D145" s="53"/>
+      <c r="D145" s="54"/>
       <c r="E145" s="7">
         <v>3</v>
       </c>
       <c r="F145" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G145" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H145" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I145" s="18"/>
       <c r="L145" s="10"/>
     </row>
-    <row r="146" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="40"/>
       <c r="C146" s="40"/>
-      <c r="D146" s="53"/>
+      <c r="D146" s="54"/>
       <c r="E146" s="7">
         <v>4</v>
       </c>
       <c r="F146" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G146" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H146" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L146" s="10"/>
     </row>
-    <row r="147" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
-      <c r="D147" s="53"/>
+      <c r="D147" s="54"/>
       <c r="E147" s="7">
         <v>5</v>
       </c>
       <c r="F147" s="44" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G147" s="44" t="s">
         <v>96</v>
       </c>
       <c r="H147" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
-      <c r="D148" s="53"/>
+      <c r="D148" s="54"/>
       <c r="E148" s="7">
         <v>6</v>
       </c>
       <c r="F148" s="44" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G148" s="44" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H148" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L148" s="10"/>
     </row>
-    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
-      <c r="D149" s="53"/>
+      <c r="D149" s="54"/>
       <c r="E149" s="7">
         <v>7</v>
       </c>
       <c r="F149" s="44" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G149" s="44" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H149" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L149" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="40"/>
       <c r="C150" s="40"/>
@@ -5892,145 +5951,146 @@
       <c r="E150" s="7"/>
       <c r="L150" s="10"/>
     </row>
-    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="54" t="s">
-        <v>459</v>
+      <c r="D151" s="55" t="s">
+        <v>454</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="44" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L151" s="10"/>
     </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
-      <c r="D152" s="54"/>
+      <c r="D152" s="55"/>
       <c r="E152" s="7">
         <v>1</v>
       </c>
       <c r="F152" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G152" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H152" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L152" s="10"/>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="40"/>
       <c r="C153" s="40"/>
-      <c r="D153" s="54"/>
+      <c r="D153" s="55"/>
       <c r="E153" s="7">
         <v>2</v>
       </c>
       <c r="F153" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G153" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H153" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="40"/>
       <c r="C154" s="40"/>
-      <c r="D154" s="54"/>
+      <c r="D154" s="55"/>
       <c r="E154" s="7">
         <v>3</v>
       </c>
       <c r="F154" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G154" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H154" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I154" s="18"/>
       <c r="L154" s="10"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="40"/>
       <c r="C155" s="40"/>
-      <c r="D155" s="54"/>
+      <c r="D155" s="55"/>
       <c r="E155" s="7">
         <v>4</v>
       </c>
       <c r="F155" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G155" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H155" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="40"/>
       <c r="C156" s="40"/>
-      <c r="D156" s="54"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="7">
         <v>5</v>
       </c>
       <c r="F156" s="44" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G156" s="44" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H156" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L156" s="10"/>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7">
         <v>6</v>
       </c>
       <c r="F157" s="44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G157" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="H157" s="52" t="s">
-        <v>495</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="H157" s="52"/>
       <c r="L157" s="10"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7">
@@ -6040,14 +6100,12 @@
         <v>98</v>
       </c>
       <c r="G158" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="H158" s="52" t="s">
-        <v>495</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="H158" s="52"/>
       <c r="L158" s="10"/>
     </row>
-    <row r="159" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7">
@@ -6057,14 +6115,12 @@
         <v>99</v>
       </c>
       <c r="G159" s="44" t="s">
-        <v>511</v>
-      </c>
-      <c r="H159" s="52" t="s">
-        <v>495</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="H159" s="52"/>
       <c r="L159" s="10"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7">
@@ -6076,9 +6132,7 @@
       <c r="G160" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H160" s="52" t="s">
-        <v>495</v>
-      </c>
+      <c r="H160" s="52"/>
       <c r="L160" s="10"/>
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6093,14 +6147,12 @@
       <c r="G161" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H161" s="52" t="s">
-        <v>495</v>
-      </c>
+      <c r="H161" s="52"/>
       <c r="K161" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -6113,20 +6165,20 @@
     </row>
     <row r="163" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D163" s="54" t="s">
-        <v>465</v>
+      <c r="D163" s="55" t="s">
+        <v>460</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="44" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I163" s="16"/>
       <c r="L163" s="10"/>
@@ -6135,21 +6187,21 @@
       <c r="A164" s="9"/>
       <c r="B164" s="40"/>
       <c r="C164" s="40"/>
-      <c r="D164" s="54"/>
+      <c r="D164" s="55"/>
       <c r="E164" s="7">
         <v>1</v>
       </c>
       <c r="F164" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G164" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H164" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L164" s="10"/>
     </row>
@@ -6157,21 +6209,21 @@
       <c r="A165" s="9"/>
       <c r="B165" s="40"/>
       <c r="C165" s="40"/>
-      <c r="D165" s="54"/>
+      <c r="D165" s="55"/>
       <c r="E165" s="7">
         <v>2</v>
       </c>
       <c r="F165" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G165" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H165" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L165" s="10"/>
     </row>
@@ -6179,18 +6231,18 @@
       <c r="A166" s="9"/>
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
-      <c r="D166" s="54"/>
+      <c r="D166" s="55"/>
       <c r="E166" s="7">
         <v>3</v>
       </c>
       <c r="F166" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G166" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H166" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I166" s="18"/>
       <c r="L166" s="10"/>
@@ -6199,18 +6251,18 @@
       <c r="A167" s="9"/>
       <c r="B167" s="40"/>
       <c r="C167" s="40"/>
-      <c r="D167" s="54"/>
+      <c r="D167" s="55"/>
       <c r="E167" s="7">
         <v>4</v>
       </c>
       <c r="F167" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G167" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H167" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L167" s="10"/>
     </row>
@@ -6218,22 +6270,22 @@
       <c r="A168" s="9"/>
       <c r="B168" s="40"/>
       <c r="C168" s="40"/>
-      <c r="D168" s="54"/>
+      <c r="D168" s="55"/>
       <c r="E168" s="7">
         <v>5</v>
       </c>
       <c r="F168" s="44" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G168" s="44" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H168" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I168" s="16"/>
       <c r="K168" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L168" s="10" t="s">
         <v>16</v>
@@ -6250,20 +6302,20 @@
     </row>
     <row r="170" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D170" s="54" t="s">
-        <v>467</v>
+      <c r="D170" s="55" t="s">
+        <v>462</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="44" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I170" s="16"/>
       <c r="L170" s="10"/>
@@ -6272,21 +6324,21 @@
       <c r="A171" s="9"/>
       <c r="B171" s="40"/>
       <c r="C171" s="40"/>
-      <c r="D171" s="54"/>
+      <c r="D171" s="55"/>
       <c r="E171" s="7">
         <v>1</v>
       </c>
       <c r="F171" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G171" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H171" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L171" s="10"/>
     </row>
@@ -6294,21 +6346,21 @@
       <c r="A172" s="9"/>
       <c r="B172" s="40"/>
       <c r="C172" s="40"/>
-      <c r="D172" s="54"/>
+      <c r="D172" s="55"/>
       <c r="E172" s="7">
         <v>2</v>
       </c>
       <c r="F172" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G172" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H172" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L172" s="10"/>
     </row>
@@ -6316,18 +6368,18 @@
       <c r="A173" s="9"/>
       <c r="B173" s="40"/>
       <c r="C173" s="40"/>
-      <c r="D173" s="54"/>
+      <c r="D173" s="55"/>
       <c r="E173" s="7">
         <v>3</v>
       </c>
       <c r="F173" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G173" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H173" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I173" s="18"/>
       <c r="L173" s="10"/>
@@ -6336,18 +6388,18 @@
       <c r="A174" s="9"/>
       <c r="B174" s="40"/>
       <c r="C174" s="40"/>
-      <c r="D174" s="54"/>
+      <c r="D174" s="55"/>
       <c r="E174" s="7">
         <v>4</v>
       </c>
       <c r="F174" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G174" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H174" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L174" s="10"/>
     </row>
@@ -6355,22 +6407,22 @@
       <c r="A175" s="9"/>
       <c r="B175" s="40"/>
       <c r="C175" s="40"/>
-      <c r="D175" s="54"/>
+      <c r="D175" s="55"/>
       <c r="E175" s="7">
         <v>5</v>
       </c>
       <c r="F175" s="44" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G175" s="44" t="s">
         <v>103</v>
       </c>
       <c r="H175" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I175" s="16"/>
       <c r="K175" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L175" s="10" t="s">
         <v>16</v>
@@ -6387,23 +6439,23 @@
     </row>
     <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D177" s="54" t="s">
-        <v>471</v>
+      <c r="D177" s="55" t="s">
+        <v>466</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H177" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I177" s="16"/>
       <c r="L177" s="10"/>
@@ -6412,21 +6464,21 @@
       <c r="A178" s="9"/>
       <c r="B178" s="40"/>
       <c r="C178" s="40"/>
-      <c r="D178" s="54"/>
+      <c r="D178" s="55"/>
       <c r="E178" s="7">
         <v>1</v>
       </c>
       <c r="F178" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G178" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H178" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L178" s="10"/>
     </row>
@@ -6434,21 +6486,21 @@
       <c r="A179" s="9"/>
       <c r="B179" s="40"/>
       <c r="C179" s="40"/>
-      <c r="D179" s="54"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="7">
         <v>2</v>
       </c>
       <c r="F179" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G179" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H179" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I179" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L179" s="10"/>
     </row>
@@ -6456,18 +6508,18 @@
       <c r="A180" s="9"/>
       <c r="B180" s="40"/>
       <c r="C180" s="40"/>
-      <c r="D180" s="54"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="7">
         <v>3</v>
       </c>
       <c r="F180" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G180" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H180" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I180" s="18"/>
       <c r="L180" s="10"/>
@@ -6476,18 +6528,18 @@
       <c r="A181" s="9"/>
       <c r="B181" s="40"/>
       <c r="C181" s="40"/>
-      <c r="D181" s="54"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="7">
         <v>4</v>
       </c>
       <c r="F181" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G181" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H181" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L181" s="10"/>
     </row>
@@ -6495,22 +6547,22 @@
       <c r="A182" s="9"/>
       <c r="B182" s="40"/>
       <c r="C182" s="40"/>
-      <c r="D182" s="54"/>
+      <c r="D182" s="55"/>
       <c r="E182" s="7">
         <v>5</v>
       </c>
       <c r="F182" s="44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G182" s="44" t="s">
         <v>104</v>
       </c>
       <c r="H182" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I182" s="16"/>
       <c r="K182" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L182" s="10" t="s">
         <v>16</v>
@@ -6527,20 +6579,20 @@
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D184" s="53" t="s">
+      <c r="D184" s="54" t="s">
         <v>105</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I184" s="16"/>
       <c r="L184" s="10"/>
@@ -6549,21 +6601,21 @@
       <c r="A185" s="9"/>
       <c r="B185" s="40"/>
       <c r="C185" s="40"/>
-      <c r="D185" s="53"/>
+      <c r="D185" s="54"/>
       <c r="E185" s="7">
         <v>1</v>
       </c>
       <c r="F185" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G185" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H185" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L185" s="10"/>
     </row>
@@ -6571,21 +6623,21 @@
       <c r="A186" s="9"/>
       <c r="B186" s="40"/>
       <c r="C186" s="40"/>
-      <c r="D186" s="53"/>
+      <c r="D186" s="54"/>
       <c r="E186" s="7">
         <v>2</v>
       </c>
       <c r="F186" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G186" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H186" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I186" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L186" s="10"/>
     </row>
@@ -6593,18 +6645,18 @@
       <c r="A187" s="9"/>
       <c r="B187" s="40"/>
       <c r="C187" s="40"/>
-      <c r="D187" s="53"/>
+      <c r="D187" s="54"/>
       <c r="E187" s="7">
         <v>3</v>
       </c>
       <c r="F187" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G187" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H187" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I187" s="18"/>
       <c r="L187" s="10"/>
@@ -6613,18 +6665,18 @@
       <c r="A188" s="9"/>
       <c r="B188" s="40"/>
       <c r="C188" s="40"/>
-      <c r="D188" s="53"/>
+      <c r="D188" s="54"/>
       <c r="E188" s="7">
         <v>4</v>
       </c>
       <c r="F188" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G188" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H188" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L188" s="10"/>
     </row>
@@ -6632,18 +6684,18 @@
       <c r="A189" s="9"/>
       <c r="B189" s="40"/>
       <c r="C189" s="40"/>
-      <c r="D189" s="53"/>
+      <c r="D189" s="54"/>
       <c r="E189" s="7">
         <v>5</v>
       </c>
       <c r="F189" s="44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G189" s="44" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H189" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I189" s="16"/>
       <c r="L189" s="10"/>
@@ -6652,22 +6704,22 @@
       <c r="A190" s="9"/>
       <c r="B190" s="40"/>
       <c r="C190" s="40"/>
-      <c r="D190" s="53"/>
+      <c r="D190" s="54"/>
       <c r="E190" s="7">
         <v>6</v>
       </c>
       <c r="F190" s="44" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G190" s="44" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H190" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I190" s="16"/>
       <c r="K190" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L190" s="10" t="s">
         <v>16</v>
@@ -6684,22 +6736,22 @@
     </row>
     <row r="192" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D192" s="53" t="s">
+      <c r="D192" s="54" t="s">
         <v>106</v>
       </c>
       <c r="E192" s="7">
         <v>1</v>
       </c>
       <c r="F192" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I192" s="16"/>
       <c r="L192" s="10"/>
@@ -6708,21 +6760,21 @@
       <c r="A193" s="9"/>
       <c r="B193" s="40"/>
       <c r="C193" s="40"/>
-      <c r="D193" s="53"/>
+      <c r="D193" s="54"/>
       <c r="E193" s="7">
         <v>1</v>
       </c>
       <c r="F193" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G193" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H193" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I193" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L193" s="10"/>
     </row>
@@ -6730,21 +6782,21 @@
       <c r="A194" s="9"/>
       <c r="B194" s="40"/>
       <c r="C194" s="40"/>
-      <c r="D194" s="53"/>
+      <c r="D194" s="54"/>
       <c r="E194" s="7">
         <v>2</v>
       </c>
       <c r="F194" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G194" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H194" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I194" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L194" s="10"/>
     </row>
@@ -6752,18 +6804,18 @@
       <c r="A195" s="9"/>
       <c r="B195" s="40"/>
       <c r="C195" s="40"/>
-      <c r="D195" s="53"/>
+      <c r="D195" s="54"/>
       <c r="E195" s="7">
         <v>3</v>
       </c>
       <c r="F195" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G195" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H195" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I195" s="18"/>
       <c r="L195" s="10"/>
@@ -6772,18 +6824,18 @@
       <c r="A196" s="9"/>
       <c r="B196" s="40"/>
       <c r="C196" s="40"/>
-      <c r="D196" s="53"/>
+      <c r="D196" s="54"/>
       <c r="E196" s="7">
         <v>4</v>
       </c>
       <c r="F196" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G196" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H196" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L196" s="10"/>
     </row>
@@ -6791,18 +6843,18 @@
       <c r="A197" s="9"/>
       <c r="B197" s="40"/>
       <c r="C197" s="40"/>
-      <c r="D197" s="53"/>
+      <c r="D197" s="54"/>
       <c r="E197" s="7">
         <v>5</v>
       </c>
       <c r="F197" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G197" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H197" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I197" s="16"/>
       <c r="L197" s="10"/>
@@ -6811,7 +6863,7 @@
       <c r="A198" s="9"/>
       <c r="B198" s="40"/>
       <c r="C198" s="40"/>
-      <c r="D198" s="53"/>
+      <c r="D198" s="54"/>
       <c r="E198" s="7">
         <v>6</v>
       </c>
@@ -6822,19 +6874,19 @@
         <v>108</v>
       </c>
       <c r="H198" s="44" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I198" s="16"/>
       <c r="L198" s="10"/>
       <c r="N198" s="9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="40"/>
       <c r="C199" s="40"/>
-      <c r="D199" s="53"/>
+      <c r="D199" s="54"/>
       <c r="E199" s="7">
         <v>7</v>
       </c>
@@ -6846,7 +6898,7 @@
       </c>
       <c r="I199" s="16"/>
       <c r="K199" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L199" s="10" t="s">
         <v>18</v>
@@ -6862,20 +6914,20 @@
     </row>
     <row r="201" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D201" s="54" t="s">
-        <v>478</v>
+      <c r="D201" s="55" t="s">
+        <v>473</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I201" s="16"/>
       <c r="L201" s="10"/>
@@ -6884,21 +6936,21 @@
       <c r="A202" s="9"/>
       <c r="B202" s="40"/>
       <c r="C202" s="40"/>
-      <c r="D202" s="54"/>
+      <c r="D202" s="55"/>
       <c r="E202" s="7">
         <v>1</v>
       </c>
       <c r="F202" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G202" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H202" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I202" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L202" s="10"/>
     </row>
@@ -6906,21 +6958,21 @@
       <c r="A203" s="9"/>
       <c r="B203" s="40"/>
       <c r="C203" s="40"/>
-      <c r="D203" s="54"/>
+      <c r="D203" s="55"/>
       <c r="E203" s="7">
         <v>2</v>
       </c>
       <c r="F203" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G203" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H203" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I203" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L203" s="10"/>
     </row>
@@ -6928,18 +6980,18 @@
       <c r="A204" s="9"/>
       <c r="B204" s="40"/>
       <c r="C204" s="40"/>
-      <c r="D204" s="54"/>
+      <c r="D204" s="55"/>
       <c r="E204" s="7">
         <v>3</v>
       </c>
       <c r="F204" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G204" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H204" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I204" s="18"/>
       <c r="L204" s="10"/>
@@ -6948,18 +7000,18 @@
       <c r="A205" s="9"/>
       <c r="B205" s="40"/>
       <c r="C205" s="40"/>
-      <c r="D205" s="54"/>
+      <c r="D205" s="55"/>
       <c r="E205" s="7">
         <v>4</v>
       </c>
       <c r="F205" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G205" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H205" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L205" s="10"/>
     </row>
@@ -6967,18 +7019,18 @@
       <c r="A206" s="9"/>
       <c r="B206" s="40"/>
       <c r="C206" s="40"/>
-      <c r="D206" s="54"/>
+      <c r="D206" s="55"/>
       <c r="E206" s="7">
         <v>5</v>
       </c>
       <c r="F206" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G206" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H206" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I206" s="16"/>
       <c r="L206" s="10"/>
@@ -6987,7 +7039,7 @@
       <c r="A207" s="9"/>
       <c r="B207" s="40"/>
       <c r="C207" s="40"/>
-      <c r="D207" s="54"/>
+      <c r="D207" s="55"/>
       <c r="E207" s="7">
         <v>6</v>
       </c>
@@ -6998,7 +7050,7 @@
         <v>108</v>
       </c>
       <c r="H207" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I207" s="16"/>
       <c r="L207" s="10"/>
@@ -7007,7 +7059,7 @@
       <c r="A208" s="9"/>
       <c r="B208" s="40"/>
       <c r="C208" s="40"/>
-      <c r="D208" s="54"/>
+      <c r="D208" s="55"/>
       <c r="E208" s="7">
         <v>7</v>
       </c>
@@ -7018,14 +7070,14 @@
         <v>110</v>
       </c>
       <c r="H208" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I208" s="16"/>
       <c r="L208" s="10"/>
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="D209" s="54"/>
+      <c r="D209" s="55"/>
       <c r="E209" s="7">
         <v>8</v>
       </c>
@@ -7033,14 +7085,14 @@
         <v>111</v>
       </c>
       <c r="G209" s="44" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H209" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I209" s="16"/>
       <c r="K209" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L209" s="10" t="s">
         <v>16</v>
@@ -7057,28 +7109,28 @@
     </row>
     <row r="211" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B211" s="45" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C211" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="58" t="s">
+      <c r="D211" s="59" t="s">
         <v>112</v>
       </c>
       <c r="E211" s="27">
         <v>1</v>
       </c>
       <c r="F211" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G211" s="51" t="s">
         <v>113</v>
       </c>
       <c r="H211" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I211" s="16"/>
       <c r="L211" s="10"/>
@@ -7087,21 +7139,21 @@
       <c r="A212" s="25"/>
       <c r="B212" s="45"/>
       <c r="C212" s="39"/>
-      <c r="D212" s="58"/>
+      <c r="D212" s="59"/>
       <c r="E212" s="7">
         <v>1</v>
       </c>
       <c r="F212" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G212" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H212" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I212" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L212" s="10"/>
     </row>
@@ -7109,21 +7161,21 @@
       <c r="A213" s="25"/>
       <c r="B213" s="39"/>
       <c r="C213" s="39"/>
-      <c r="D213" s="58"/>
+      <c r="D213" s="59"/>
       <c r="E213" s="7">
         <v>2</v>
       </c>
       <c r="F213" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G213" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H213" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I213" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L213" s="10"/>
     </row>
@@ -7131,18 +7183,18 @@
       <c r="A214" s="25"/>
       <c r="B214" s="45"/>
       <c r="C214" s="45"/>
-      <c r="D214" s="58"/>
+      <c r="D214" s="59"/>
       <c r="E214" s="7">
         <v>3</v>
       </c>
       <c r="F214" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G214" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H214" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I214" s="18"/>
       <c r="L214" s="10"/>
@@ -7151,18 +7203,18 @@
       <c r="A215" s="25"/>
       <c r="B215" s="45"/>
       <c r="C215" s="45"/>
-      <c r="D215" s="58"/>
+      <c r="D215" s="59"/>
       <c r="E215" s="7">
         <v>4</v>
       </c>
       <c r="F215" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G215" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H215" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L215" s="10"/>
     </row>
@@ -7170,18 +7222,18 @@
       <c r="A216" s="25"/>
       <c r="B216" s="39"/>
       <c r="C216" s="39"/>
-      <c r="D216" s="58"/>
+      <c r="D216" s="59"/>
       <c r="E216" s="7">
         <v>5</v>
       </c>
       <c r="F216" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G216" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H216" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I216" s="16"/>
       <c r="L216" s="10"/>
@@ -7190,7 +7242,7 @@
       <c r="A217" s="25"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
-      <c r="D217" s="58"/>
+      <c r="D217" s="59"/>
       <c r="E217" s="7">
         <v>6</v>
       </c>
@@ -7201,7 +7253,7 @@
         <v>108</v>
       </c>
       <c r="H217" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I217" s="16"/>
       <c r="L217" s="10"/>
@@ -7210,18 +7262,18 @@
       <c r="A218" s="25"/>
       <c r="B218" s="39"/>
       <c r="C218" s="39"/>
-      <c r="D218" s="58"/>
+      <c r="D218" s="59"/>
       <c r="E218" s="7">
         <v>7</v>
       </c>
       <c r="F218" s="44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G218" s="44" t="s">
         <v>110</v>
       </c>
       <c r="H218" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I218" s="16"/>
       <c r="L218" s="10"/>
@@ -7230,18 +7282,18 @@
       <c r="A219" s="25"/>
       <c r="B219" s="39"/>
       <c r="C219" s="45"/>
-      <c r="D219" s="58"/>
+      <c r="D219" s="59"/>
       <c r="E219" s="7">
         <v>8</v>
       </c>
       <c r="F219" s="44" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G219" s="44" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H219" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I219" s="16"/>
       <c r="L219" s="10"/>
@@ -7250,7 +7302,7 @@
       <c r="A220" s="27"/>
       <c r="B220" s="26"/>
       <c r="C220" s="45"/>
-      <c r="D220" s="58"/>
+      <c r="D220" s="59"/>
       <c r="E220" s="27">
         <v>9</v>
       </c>
@@ -7261,14 +7313,14 @@
         <v>113</v>
       </c>
       <c r="H220" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I220" s="16"/>
       <c r="J220" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L220" s="10" t="s">
         <v>16</v>
@@ -7286,22 +7338,22 @@
     </row>
     <row r="222" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D222" s="53" t="s">
+      <c r="D222" s="54" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="7">
         <v>1</v>
       </c>
       <c r="F222" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I222" s="16"/>
       <c r="L222" s="10"/>
@@ -7310,21 +7362,21 @@
       <c r="A223" s="9"/>
       <c r="B223" s="46"/>
       <c r="C223" s="46"/>
-      <c r="D223" s="53"/>
+      <c r="D223" s="54"/>
       <c r="E223" s="7">
         <v>1</v>
       </c>
       <c r="F223" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G223" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H223" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L223" s="10"/>
     </row>
@@ -7332,38 +7384,38 @@
       <c r="A224" s="9"/>
       <c r="B224" s="46"/>
       <c r="C224" s="46"/>
-      <c r="D224" s="53"/>
+      <c r="D224" s="54"/>
       <c r="E224" s="7">
         <v>2</v>
       </c>
       <c r="F224" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G224" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H224" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I224" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L224" s="10"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="D225" s="53"/>
+      <c r="D225" s="54"/>
       <c r="E225" s="7">
         <v>3</v>
       </c>
       <c r="F225" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G225" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H225" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I225" s="18"/>
       <c r="L225" s="10"/>
@@ -7372,18 +7424,18 @@
       <c r="A226" s="7"/>
       <c r="B226" s="46"/>
       <c r="C226" s="46"/>
-      <c r="D226" s="53"/>
+      <c r="D226" s="54"/>
       <c r="E226" s="7">
         <v>4</v>
       </c>
       <c r="F226" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G226" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H226" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L226" s="10"/>
     </row>
@@ -7391,18 +7443,18 @@
       <c r="A227" s="7"/>
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
-      <c r="D227" s="53"/>
+      <c r="D227" s="54"/>
       <c r="E227" s="7">
         <v>5</v>
       </c>
       <c r="F227" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G227" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H227" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I227" s="16"/>
       <c r="L227" s="10"/>
@@ -7411,7 +7463,7 @@
       <c r="A228" s="7"/>
       <c r="B228" s="46"/>
       <c r="C228" s="46"/>
-      <c r="D228" s="53"/>
+      <c r="D228" s="54"/>
       <c r="E228" s="7">
         <v>6</v>
       </c>
@@ -7422,7 +7474,7 @@
         <v>108</v>
       </c>
       <c r="H228" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I228" s="16"/>
       <c r="L228" s="10"/>
@@ -7431,18 +7483,18 @@
       <c r="A229" s="7"/>
       <c r="B229" s="46"/>
       <c r="C229" s="46"/>
-      <c r="D229" s="53"/>
+      <c r="D229" s="54"/>
       <c r="E229" s="7">
         <v>7</v>
       </c>
       <c r="F229" s="44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G229" s="44" t="s">
         <v>110</v>
       </c>
       <c r="H229" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I229" s="16"/>
       <c r="L229" s="10"/>
@@ -7451,18 +7503,18 @@
       <c r="A230" s="7"/>
       <c r="B230" s="46"/>
       <c r="C230" s="46"/>
-      <c r="D230" s="53"/>
+      <c r="D230" s="54"/>
       <c r="E230" s="7">
         <v>8</v>
       </c>
       <c r="F230" s="44" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G230" s="44" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H230" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I230" s="16"/>
       <c r="L230" s="10"/>
@@ -7471,7 +7523,7 @@
       <c r="A231" s="7"/>
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
-      <c r="D231" s="53"/>
+      <c r="D231" s="54"/>
       <c r="E231" s="27">
         <v>9</v>
       </c>
@@ -7482,7 +7534,7 @@
         <v>113</v>
       </c>
       <c r="H231" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I231" s="16"/>
       <c r="L231" s="10"/>
@@ -7491,22 +7543,22 @@
       <c r="A232" s="7"/>
       <c r="B232" s="46"/>
       <c r="C232" s="46"/>
-      <c r="D232" s="53"/>
+      <c r="D232" s="54"/>
       <c r="E232" s="7">
         <v>10</v>
       </c>
       <c r="F232" s="44" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G232" s="44" t="s">
         <v>116</v>
       </c>
       <c r="H232" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I232" s="16"/>
       <c r="K232" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L232" s="10" t="s">
         <v>16</v>
@@ -7523,20 +7575,20 @@
     </row>
     <row r="234" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D234" s="55" t="s">
-        <v>271</v>
+      <c r="D234" s="56" t="s">
+        <v>266</v>
       </c>
       <c r="E234" s="7"/>
       <c r="F234" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I234" s="16"/>
       <c r="L234" s="10"/>
@@ -7545,21 +7597,21 @@
       <c r="A235" s="9"/>
       <c r="B235" s="46"/>
       <c r="C235" s="46"/>
-      <c r="D235" s="55"/>
+      <c r="D235" s="56"/>
       <c r="E235" s="7">
         <v>1</v>
       </c>
       <c r="F235" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G235" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H235" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L235" s="10"/>
     </row>
@@ -7567,38 +7619,38 @@
       <c r="A236" s="9"/>
       <c r="B236" s="46"/>
       <c r="C236" s="46"/>
-      <c r="D236" s="55"/>
+      <c r="D236" s="56"/>
       <c r="E236" s="7">
         <v>2</v>
       </c>
       <c r="F236" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G236" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H236" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I236" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L236" s="10"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="D237" s="55"/>
+      <c r="D237" s="56"/>
       <c r="E237" s="7">
         <v>3</v>
       </c>
       <c r="F237" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G237" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H237" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I237" s="18"/>
       <c r="L237" s="10"/>
@@ -7607,18 +7659,18 @@
       <c r="A238" s="7"/>
       <c r="B238" s="46"/>
       <c r="C238" s="46"/>
-      <c r="D238" s="55"/>
+      <c r="D238" s="56"/>
       <c r="E238" s="7">
         <v>4</v>
       </c>
       <c r="F238" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G238" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H238" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L238" s="10"/>
     </row>
@@ -7626,18 +7678,18 @@
       <c r="A239" s="7"/>
       <c r="B239" s="46"/>
       <c r="C239" s="46"/>
-      <c r="D239" s="55"/>
+      <c r="D239" s="56"/>
       <c r="E239" s="7">
         <v>5</v>
       </c>
       <c r="F239" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G239" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H239" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I239" s="16"/>
       <c r="L239" s="10"/>
@@ -7646,7 +7698,7 @@
       <c r="A240" s="7"/>
       <c r="B240" s="46"/>
       <c r="C240" s="46"/>
-      <c r="D240" s="55"/>
+      <c r="D240" s="56"/>
       <c r="E240" s="7">
         <v>6</v>
       </c>
@@ -7657,7 +7709,7 @@
         <v>108</v>
       </c>
       <c r="H240" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I240" s="16"/>
       <c r="L240" s="10"/>
@@ -7666,18 +7718,18 @@
       <c r="A241" s="7"/>
       <c r="B241" s="46"/>
       <c r="C241" s="46"/>
-      <c r="D241" s="55"/>
+      <c r="D241" s="56"/>
       <c r="E241" s="7">
         <v>7</v>
       </c>
       <c r="F241" s="44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G241" s="44" t="s">
         <v>110</v>
       </c>
       <c r="H241" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I241" s="16"/>
       <c r="L241" s="10"/>
@@ -7686,7 +7738,7 @@
       <c r="A242" s="7"/>
       <c r="B242" s="46"/>
       <c r="C242" s="46"/>
-      <c r="D242" s="55"/>
+      <c r="D242" s="56"/>
       <c r="E242" s="7">
         <v>8</v>
       </c>
@@ -7697,11 +7749,11 @@
         <v>118</v>
       </c>
       <c r="H242" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I242" s="16"/>
       <c r="K242" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L242" s="10" t="s">
         <v>16</v>
@@ -7718,20 +7770,20 @@
     </row>
     <row r="244" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D244" s="55" t="s">
-        <v>272</v>
+      <c r="D244" s="56" t="s">
+        <v>267</v>
       </c>
       <c r="E244" s="7"/>
       <c r="F244" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I244" s="16"/>
       <c r="L244" s="10"/>
@@ -7740,21 +7792,21 @@
       <c r="A245" s="9"/>
       <c r="B245" s="46"/>
       <c r="C245" s="46"/>
-      <c r="D245" s="55"/>
+      <c r="D245" s="56"/>
       <c r="E245" s="7">
         <v>1</v>
       </c>
       <c r="F245" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G245" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H245" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I245" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L245" s="10"/>
     </row>
@@ -7762,21 +7814,21 @@
       <c r="A246" s="9"/>
       <c r="B246" s="46"/>
       <c r="C246" s="46"/>
-      <c r="D246" s="55"/>
+      <c r="D246" s="56"/>
       <c r="E246" s="7">
         <v>2</v>
       </c>
       <c r="F246" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G246" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H246" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I246" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L246" s="10"/>
     </row>
@@ -7784,18 +7836,18 @@
       <c r="A247" s="9"/>
       <c r="B247" s="46"/>
       <c r="C247" s="46"/>
-      <c r="D247" s="55"/>
+      <c r="D247" s="56"/>
       <c r="E247" s="7">
         <v>3</v>
       </c>
       <c r="F247" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G247" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H247" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I247" s="18"/>
       <c r="L247" s="10"/>
@@ -7804,18 +7856,18 @@
       <c r="A248" s="9"/>
       <c r="B248" s="46"/>
       <c r="C248" s="46"/>
-      <c r="D248" s="55"/>
+      <c r="D248" s="56"/>
       <c r="E248" s="7">
         <v>4</v>
       </c>
       <c r="F248" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G248" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H248" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L248" s="10"/>
     </row>
@@ -7823,18 +7875,18 @@
       <c r="A249" s="9"/>
       <c r="B249" s="46"/>
       <c r="C249" s="46"/>
-      <c r="D249" s="55"/>
+      <c r="D249" s="56"/>
       <c r="E249" s="7">
         <v>5</v>
       </c>
       <c r="F249" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G249" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H249" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I249" s="16"/>
       <c r="L249" s="10"/>
@@ -7843,7 +7895,7 @@
       <c r="A250" s="9"/>
       <c r="B250" s="46"/>
       <c r="C250" s="46"/>
-      <c r="D250" s="55"/>
+      <c r="D250" s="56"/>
       <c r="E250" s="7">
         <v>6</v>
       </c>
@@ -7854,7 +7906,7 @@
         <v>108</v>
       </c>
       <c r="H250" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I250" s="16"/>
       <c r="L250" s="10"/>
@@ -7863,18 +7915,18 @@
       <c r="A251" s="9"/>
       <c r="B251" s="46"/>
       <c r="C251" s="46"/>
-      <c r="D251" s="55"/>
+      <c r="D251" s="56"/>
       <c r="E251" s="7">
         <v>7</v>
       </c>
       <c r="F251" s="44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G251" s="44" t="s">
         <v>110</v>
       </c>
       <c r="H251" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I251" s="16"/>
       <c r="L251" s="10"/>
@@ -7886,11 +7938,11 @@
       <c r="D252" s="9"/>
       <c r="E252" s="7"/>
       <c r="H252" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I252" s="16"/>
       <c r="K252" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L252" s="10" t="s">
         <v>16</v>
@@ -7898,41 +7950,41 @@
     </row>
     <row r="253" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D253" s="55" t="s">
-        <v>273</v>
+      <c r="D253" s="56" t="s">
+        <v>268</v>
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I253" s="16"/>
       <c r="L253" s="10"/>
     </row>
     <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="D254" s="55"/>
+      <c r="D254" s="56"/>
       <c r="E254" s="7">
         <v>1</v>
       </c>
       <c r="F254" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G254" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H254" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I254" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L254" s="10"/>
     </row>
@@ -7940,21 +7992,21 @@
       <c r="A255" s="7"/>
       <c r="B255" s="46"/>
       <c r="C255" s="46"/>
-      <c r="D255" s="55"/>
+      <c r="D255" s="56"/>
       <c r="E255" s="7">
         <v>2</v>
       </c>
       <c r="F255" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G255" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H255" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I255" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L255" s="10"/>
     </row>
@@ -7962,18 +8014,18 @@
       <c r="A256" s="7"/>
       <c r="B256" s="46"/>
       <c r="C256" s="46"/>
-      <c r="D256" s="55"/>
+      <c r="D256" s="56"/>
       <c r="E256" s="7">
         <v>3</v>
       </c>
       <c r="F256" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G256" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H256" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I256" s="18"/>
       <c r="L256" s="10"/>
@@ -7982,18 +8034,18 @@
       <c r="A257" s="7"/>
       <c r="B257" s="46"/>
       <c r="C257" s="46"/>
-      <c r="D257" s="55"/>
+      <c r="D257" s="56"/>
       <c r="E257" s="7">
         <v>4</v>
       </c>
       <c r="F257" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G257" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H257" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L257" s="10"/>
     </row>
@@ -8001,18 +8053,18 @@
       <c r="A258" s="7"/>
       <c r="B258" s="46"/>
       <c r="C258" s="46"/>
-      <c r="D258" s="55"/>
+      <c r="D258" s="56"/>
       <c r="E258" s="7">
         <v>5</v>
       </c>
       <c r="F258" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G258" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H258" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I258" s="16"/>
       <c r="L258" s="10"/>
@@ -8021,7 +8073,7 @@
       <c r="A259" s="7"/>
       <c r="B259" s="46"/>
       <c r="C259" s="46"/>
-      <c r="D259" s="55"/>
+      <c r="D259" s="56"/>
       <c r="E259" s="7">
         <v>6</v>
       </c>
@@ -8032,7 +8084,7 @@
         <v>108</v>
       </c>
       <c r="H259" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I259" s="16"/>
       <c r="L259" s="10"/>
@@ -8041,18 +8093,18 @@
       <c r="A260" s="7"/>
       <c r="B260" s="46"/>
       <c r="C260" s="46"/>
-      <c r="D260" s="55"/>
+      <c r="D260" s="56"/>
       <c r="E260" s="7">
         <v>7</v>
       </c>
       <c r="F260" s="44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G260" s="44" t="s">
         <v>110</v>
       </c>
       <c r="H260" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I260" s="16"/>
       <c r="L260" s="10"/>
@@ -8061,22 +8113,22 @@
       <c r="A261" s="7"/>
       <c r="B261" s="46"/>
       <c r="C261" s="46"/>
-      <c r="D261" s="55"/>
+      <c r="D261" s="56"/>
       <c r="E261" s="7">
         <v>8</v>
       </c>
       <c r="F261" s="44" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G261" s="44" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H261" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I261" s="16"/>
       <c r="K261" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L261" s="10" t="s">
         <v>16</v>
@@ -8093,20 +8145,20 @@
     </row>
     <row r="263" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="55" t="s">
-        <v>274</v>
+      <c r="D263" s="56" t="s">
+        <v>269</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I263" s="16"/>
       <c r="L263" s="10"/>
@@ -8115,21 +8167,21 @@
       <c r="A264" s="9"/>
       <c r="B264" s="46"/>
       <c r="C264" s="46"/>
-      <c r="D264" s="55"/>
+      <c r="D264" s="56"/>
       <c r="E264" s="7">
         <v>1</v>
       </c>
       <c r="F264" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G264" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H264" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I264" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L264" s="10"/>
     </row>
@@ -8137,21 +8189,21 @@
       <c r="A265" s="9"/>
       <c r="B265" s="46"/>
       <c r="C265" s="46"/>
-      <c r="D265" s="55"/>
+      <c r="D265" s="56"/>
       <c r="E265" s="7">
         <v>2</v>
       </c>
       <c r="F265" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G265" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H265" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I265" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L265" s="10"/>
     </row>
@@ -8159,18 +8211,18 @@
       <c r="A266" s="9"/>
       <c r="B266" s="46"/>
       <c r="C266" s="46"/>
-      <c r="D266" s="55"/>
+      <c r="D266" s="56"/>
       <c r="E266" s="7">
         <v>3</v>
       </c>
       <c r="F266" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G266" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H266" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I266" s="18"/>
       <c r="L266" s="10"/>
@@ -8179,18 +8231,18 @@
       <c r="A267" s="9"/>
       <c r="B267" s="46"/>
       <c r="C267" s="46"/>
-      <c r="D267" s="55"/>
+      <c r="D267" s="56"/>
       <c r="E267" s="7">
         <v>4</v>
       </c>
       <c r="F267" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G267" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H267" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L267" s="10"/>
     </row>
@@ -8198,18 +8250,18 @@
       <c r="A268" s="9"/>
       <c r="B268" s="46"/>
       <c r="C268" s="46"/>
-      <c r="D268" s="55"/>
+      <c r="D268" s="56"/>
       <c r="E268" s="7">
         <v>5</v>
       </c>
       <c r="F268" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G268" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H268" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I268" s="16"/>
       <c r="L268" s="10"/>
@@ -8218,7 +8270,7 @@
       <c r="A269" s="9"/>
       <c r="B269" s="46"/>
       <c r="C269" s="46"/>
-      <c r="D269" s="55"/>
+      <c r="D269" s="56"/>
       <c r="E269" s="7">
         <v>6</v>
       </c>
@@ -8229,7 +8281,7 @@
         <v>108</v>
       </c>
       <c r="H269" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I269" s="16"/>
       <c r="L269" s="10"/>
@@ -8238,22 +8290,22 @@
       <c r="A270" s="9"/>
       <c r="B270" s="46"/>
       <c r="C270" s="46"/>
-      <c r="D270" s="55"/>
+      <c r="D270" s="56"/>
       <c r="E270" s="7">
         <v>7</v>
       </c>
       <c r="F270" s="44" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G270" s="44" t="s">
         <v>120</v>
       </c>
       <c r="H270" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I270" s="16"/>
       <c r="K270" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L270" s="10" t="s">
         <v>16</v>
@@ -8270,20 +8322,20 @@
     </row>
     <row r="272" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="55" t="s">
-        <v>275</v>
+      <c r="D272" s="56" t="s">
+        <v>270</v>
       </c>
       <c r="E272" s="7"/>
       <c r="F272" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I272" s="16"/>
       <c r="L272" s="10"/>
@@ -8292,21 +8344,21 @@
       <c r="A273" s="9"/>
       <c r="B273" s="46"/>
       <c r="C273" s="46"/>
-      <c r="D273" s="55"/>
+      <c r="D273" s="56"/>
       <c r="E273" s="7">
         <v>1</v>
       </c>
       <c r="F273" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G273" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H273" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I273" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L273" s="10"/>
     </row>
@@ -8314,21 +8366,21 @@
       <c r="A274" s="9"/>
       <c r="B274" s="46"/>
       <c r="C274" s="46"/>
-      <c r="D274" s="55"/>
+      <c r="D274" s="56"/>
       <c r="E274" s="7">
         <v>2</v>
       </c>
       <c r="F274" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G274" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H274" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I274" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L274" s="10"/>
     </row>
@@ -8336,18 +8388,18 @@
       <c r="A275" s="9"/>
       <c r="B275" s="46"/>
       <c r="C275" s="46"/>
-      <c r="D275" s="55"/>
+      <c r="D275" s="56"/>
       <c r="E275" s="7">
         <v>3</v>
       </c>
       <c r="F275" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G275" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H275" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I275" s="18"/>
       <c r="L275" s="10"/>
@@ -8356,18 +8408,18 @@
       <c r="A276" s="9"/>
       <c r="B276" s="46"/>
       <c r="C276" s="46"/>
-      <c r="D276" s="55"/>
+      <c r="D276" s="56"/>
       <c r="E276" s="7">
         <v>4</v>
       </c>
       <c r="F276" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G276" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H276" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L276" s="10"/>
     </row>
@@ -8375,18 +8427,18 @@
       <c r="A277" s="9"/>
       <c r="B277" s="46"/>
       <c r="C277" s="46"/>
-      <c r="D277" s="55"/>
+      <c r="D277" s="56"/>
       <c r="E277" s="7">
         <v>5</v>
       </c>
       <c r="F277" s="44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G277" s="44" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H277" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I277" s="16"/>
       <c r="L277" s="10"/>
@@ -8395,22 +8447,22 @@
       <c r="A278" s="9"/>
       <c r="B278" s="46"/>
       <c r="C278" s="46"/>
-      <c r="D278" s="55"/>
+      <c r="D278" s="56"/>
       <c r="E278" s="7">
         <v>6</v>
       </c>
       <c r="F278" s="44" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G278" s="44" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H278" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I278" s="16"/>
       <c r="K278" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L278" s="10" t="s">
         <v>16</v>
@@ -8427,20 +8479,20 @@
     </row>
     <row r="280" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I280" s="16"/>
       <c r="L280" s="10"/>
@@ -8454,16 +8506,16 @@
         <v>1</v>
       </c>
       <c r="F281" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G281" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H281" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L281" s="10"/>
     </row>
@@ -8476,16 +8528,16 @@
         <v>2</v>
       </c>
       <c r="F282" s="44" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G282" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H282" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I282" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L282" s="10"/>
     </row>
@@ -8498,13 +8550,13 @@
         <v>3</v>
       </c>
       <c r="F283" s="44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G283" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H283" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I283" s="18"/>
       <c r="L283" s="10"/>
@@ -8518,13 +8570,13 @@
         <v>4</v>
       </c>
       <c r="F284" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G284" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H284" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L284" s="10"/>
     </row>
@@ -8537,13 +8589,13 @@
         <v>5</v>
       </c>
       <c r="F285" s="44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G285" s="44" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H285" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I285" s="16"/>
       <c r="L285" s="10"/>
@@ -8557,13 +8609,13 @@
         <v>6</v>
       </c>
       <c r="F286" s="44" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G286" s="44" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H286" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I286" s="16"/>
       <c r="L286" s="10"/>
@@ -8575,13 +8627,13 @@
         <v>7</v>
       </c>
       <c r="F287" s="44" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G287" s="44" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H287" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I287" s="16"/>
       <c r="L287" s="10"/>
@@ -8593,13 +8645,13 @@
         <v>8</v>
       </c>
       <c r="F288" s="44" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G288" s="44" t="s">
         <v>121</v>
       </c>
       <c r="H288" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I288" s="16"/>
       <c r="L288" s="10"/>
@@ -8613,13 +8665,13 @@
         <v>9</v>
       </c>
       <c r="F289" s="44" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G289" s="44" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H289" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I289" s="16"/>
       <c r="L289" s="10"/>
@@ -8637,11 +8689,11 @@
         <v>150</v>
       </c>
       <c r="H290" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I290" s="16"/>
       <c r="K290" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L290" s="10" t="s">
         <v>16</v>
@@ -8658,22 +8710,22 @@
     </row>
     <row r="292" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E292" s="7">
         <v>1</v>
       </c>
       <c r="F292" s="44" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I292" s="16"/>
       <c r="L292" s="10"/>
@@ -8691,7 +8743,7 @@
         <v>124</v>
       </c>
       <c r="H293" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I293" s="16"/>
       <c r="L293" s="10"/>
@@ -8709,11 +8761,11 @@
         <v>97</v>
       </c>
       <c r="H294" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I294" s="16"/>
       <c r="K294" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L294" s="10" t="s">
         <v>16</v>
@@ -8721,16 +8773,16 @@
     </row>
     <row r="295" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -8742,7 +8794,7 @@
         <v>126</v>
       </c>
       <c r="H295" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I295" s="16"/>
       <c r="L295" s="10"/>
@@ -8760,11 +8812,11 @@
         <v>128</v>
       </c>
       <c r="H296" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I296" s="16"/>
       <c r="K296" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L296" s="10" t="s">
         <v>16</v>
@@ -8772,16 +8824,16 @@
     </row>
     <row r="297" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E297" s="7">
         <v>1</v>
@@ -8793,11 +8845,11 @@
         <v>129</v>
       </c>
       <c r="H297" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I297" s="16"/>
       <c r="K297" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L297" s="10" t="s">
         <v>16</v>
@@ -8805,16 +8857,16 @@
     </row>
     <row r="298" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E298" s="7">
         <v>1</v>
@@ -8826,11 +8878,11 @@
         <v>129</v>
       </c>
       <c r="H298" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I298" s="16"/>
       <c r="K298" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L298" s="10" t="s">
         <v>16</v>
@@ -8838,16 +8890,16 @@
     </row>
     <row r="299" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E299" s="7">
         <v>1</v>
@@ -8859,11 +8911,11 @@
         <v>130</v>
       </c>
       <c r="H299" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I299" s="16"/>
       <c r="K299" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L299" s="10" t="s">
         <v>16</v>
@@ -8871,16 +8923,16 @@
     </row>
     <row r="300" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E300" s="7">
         <v>1</v>
@@ -8892,11 +8944,11 @@
         <v>131</v>
       </c>
       <c r="H300" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I300" s="16"/>
       <c r="K300" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L300" s="10" t="s">
         <v>16</v>
@@ -8904,16 +8956,16 @@
     </row>
     <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E301" s="7">
         <v>1</v>
@@ -8925,11 +8977,11 @@
         <v>132</v>
       </c>
       <c r="H301" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I301" s="16"/>
       <c r="K301" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L301" s="10" t="s">
         <v>16</v>
@@ -8937,10 +8989,10 @@
     </row>
     <row r="302" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>14</v>
@@ -8958,7 +9010,7 @@
         <v>134</v>
       </c>
       <c r="H302" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I302" s="16"/>
       <c r="L302" s="10"/>
@@ -8976,7 +9028,7 @@
         <v>136</v>
       </c>
       <c r="H303" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I303" s="16"/>
       <c r="L303" s="10"/>
@@ -8994,7 +9046,7 @@
         <v>138</v>
       </c>
       <c r="H304" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I304" s="16"/>
       <c r="L304" s="10"/>
@@ -9012,7 +9064,7 @@
         <v>140</v>
       </c>
       <c r="H305" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I305" s="16"/>
       <c r="L305" s="10"/>
@@ -9030,11 +9082,11 @@
         <v>142</v>
       </c>
       <c r="H306" s="52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I306" s="16"/>
       <c r="K306" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L306" s="10" t="s">
         <v>16</v>
@@ -9042,10 +9094,10 @@
     </row>
     <row r="307" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>14</v>
@@ -9057,14 +9109,14 @@
         <v>1</v>
       </c>
       <c r="F307" s="44" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G307" s="44" t="s">
         <v>144</v>
       </c>
       <c r="I307" s="16"/>
       <c r="K307" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L307" s="10" t="s">
         <v>16</v>
@@ -9079,16 +9131,16 @@
     </row>
     <row r="309" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E309" s="7">
         <v>1</v>
@@ -9099,12 +9151,12 @@
       <c r="G309" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H309" s="59" t="s">
-        <v>495</v>
+      <c r="H309" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I309" s="18"/>
       <c r="K309" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L309" s="10" t="s">
         <v>16</v>
@@ -9112,16 +9164,16 @@
     </row>
     <row r="310" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E310" s="7">
         <v>1</v>
@@ -9132,8 +9184,8 @@
       <c r="G310" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H310" s="59" t="s">
-        <v>495</v>
+      <c r="H310" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="L310" s="10"/>
     </row>
@@ -9149,8 +9201,8 @@
       <c r="G311" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="H311" s="59" t="s">
-        <v>495</v>
+      <c r="H311" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="L311" s="10"/>
     </row>
@@ -9166,11 +9218,11 @@
       <c r="G312" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="H312" s="59" t="s">
-        <v>495</v>
+      <c r="H312" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="K312" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L312" s="10" t="s">
         <v>16</v>
@@ -9178,16 +9230,16 @@
     </row>
     <row r="313" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E313" s="7">
         <v>1</v>
@@ -9198,8 +9250,8 @@
       <c r="G313" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H313" s="59" t="s">
-        <v>495</v>
+      <c r="H313" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I313" s="18"/>
       <c r="L313" s="10"/>
@@ -9216,11 +9268,11 @@
       <c r="G314" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="H314" s="59" t="s">
-        <v>495</v>
+      <c r="H314" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="K314" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L314" s="10" t="s">
         <v>16</v>
@@ -9228,28 +9280,28 @@
     </row>
     <row r="315" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E315" s="7">
         <v>1</v>
       </c>
       <c r="F315" s="44" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G315" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H315" s="59" t="s">
-        <v>495</v>
+      <c r="H315" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I315" s="18"/>
       <c r="L315" s="10"/>
@@ -9266,11 +9318,11 @@
       <c r="G316" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="H316" s="59" t="s">
-        <v>495</v>
+      <c r="H316" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="K316" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L316" s="10" t="s">
         <v>16</v>
@@ -9278,16 +9330,16 @@
     </row>
     <row r="317" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E317" s="7">
         <v>1</v>
@@ -9298,8 +9350,8 @@
       <c r="G317" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H317" s="59" t="s">
-        <v>495</v>
+      <c r="H317" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I317" s="18"/>
       <c r="L317" s="10"/>
@@ -9316,11 +9368,11 @@
       <c r="G318" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H318" s="59" t="s">
-        <v>495</v>
+      <c r="H318" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="K318" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L318" s="10" t="s">
         <v>16</v>
@@ -9328,16 +9380,16 @@
     </row>
     <row r="319" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E319" s="7">
         <v>1</v>
@@ -9348,8 +9400,8 @@
       <c r="G319" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H319" s="59" t="s">
-        <v>495</v>
+      <c r="H319" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I319" s="18"/>
       <c r="L319" s="10"/>
@@ -9365,28 +9417,28 @@
       <c r="G320" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="H320" s="59" t="s">
-        <v>495</v>
+      <c r="H320" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="K320" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L320" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E321" s="7">
         <v>1</v>
@@ -9397,29 +9449,29 @@
       <c r="G321" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="H321" s="59" t="s">
-        <v>495</v>
+      <c r="H321" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I321" s="18"/>
       <c r="K321" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L321" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E322" s="7">
         <v>1</v>
@@ -9430,29 +9482,29 @@
       <c r="G322" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="H322" s="59" t="s">
-        <v>495</v>
+      <c r="H322" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I322" s="18"/>
       <c r="K322" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L322" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E323" s="7">
         <v>1</v>
@@ -9463,29 +9515,29 @@
       <c r="G323" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H323" s="59" t="s">
-        <v>495</v>
+      <c r="H323" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I323" s="18"/>
       <c r="K323" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L323" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E324" s="7">
         <v>1</v>
@@ -9496,29 +9548,29 @@
       <c r="G324" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H324" s="59" t="s">
-        <v>495</v>
+      <c r="H324" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I324" s="18"/>
       <c r="K324" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L324" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E325" s="7">
         <v>1</v>
@@ -9529,29 +9581,29 @@
       <c r="G325" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H325" s="59" t="s">
-        <v>495</v>
+      <c r="H325" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I325" s="18"/>
       <c r="K325" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L325" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E326" s="7">
         <v>1</v>
@@ -9562,29 +9614,29 @@
       <c r="G326" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="H326" s="59" t="s">
-        <v>495</v>
+      <c r="H326" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I326" s="18"/>
       <c r="K326" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L326" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E327" s="7">
         <v>1</v>
@@ -9595,29 +9647,29 @@
       <c r="G327" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="H327" s="59" t="s">
-        <v>495</v>
+      <c r="H327" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I327" s="18"/>
       <c r="K327" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L327" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E328" s="7">
         <v>1</v>
@@ -9628,29 +9680,29 @@
       <c r="G328" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="H328" s="59" t="s">
-        <v>495</v>
+      <c r="H328" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I328" s="18"/>
       <c r="K328" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L328" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E329" s="7">
         <v>1</v>
@@ -9661,29 +9713,29 @@
       <c r="G329" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H329" s="59" t="s">
-        <v>495</v>
+      <c r="H329" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I329" s="18"/>
       <c r="K329" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L329" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E330" s="7">
         <v>1</v>
@@ -9694,29 +9746,29 @@
       <c r="G330" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="H330" s="59" t="s">
-        <v>495</v>
+      <c r="H330" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="I330" s="18"/>
       <c r="K330" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L330" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E331" s="7">
         <v>1</v>
@@ -9727,10 +9779,13 @@
       <c r="G331" s="44" t="s">
         <v>167</v>
       </c>
+      <c r="H331" s="53" t="s">
+        <v>490</v>
+      </c>
       <c r="I331" s="18"/>
       <c r="L331" s="10"/>
     </row>
-    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7">
@@ -9744,7 +9799,7 @@
       </c>
       <c r="L332" s="10"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7">
@@ -9756,9 +9811,15 @@
       <c r="G333" s="44" t="s">
         <v>171</v>
       </c>
+      <c r="H333" s="44" t="s">
+        <v>518</v>
+      </c>
       <c r="L333" s="10"/>
-    </row>
-    <row r="334" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M333" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7">
@@ -9770,20 +9831,25 @@
       <c r="G334" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="L334" s="10"/>
-    </row>
-    <row r="335" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="K334" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L334" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C335" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E335" s="7">
         <v>1</v>
@@ -9794,21 +9860,32 @@
       <c r="G335" s="44" t="s">
         <v>174</v>
       </c>
+      <c r="H335" s="44" t="s">
+        <v>527</v>
+      </c>
       <c r="I335" s="18"/>
-      <c r="L335" s="10"/>
-    </row>
-    <row r="336" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="K335" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L335" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M335" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C336" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E336" s="7">
         <v>1</v>
@@ -9819,208 +9896,290 @@
       <c r="G336" s="44" t="s">
         <v>174</v>
       </c>
+      <c r="H336" s="44" t="s">
+        <v>528</v>
+      </c>
       <c r="I336" s="18"/>
-      <c r="L336" s="10"/>
-    </row>
-    <row r="337" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="J336" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="K336" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L336" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E337" s="7">
         <v>1</v>
       </c>
       <c r="F337" s="44" t="s">
-        <v>246</v>
+        <v>521</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>174</v>
       </c>
+      <c r="H337" s="53" t="s">
+        <v>490</v>
+      </c>
       <c r="I337" s="18"/>
-      <c r="L337" s="10"/>
-    </row>
-    <row r="338" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="K337" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L337" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C338" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E338" s="7">
         <v>1</v>
       </c>
       <c r="F338" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G338" s="44" t="s">
         <v>176</v>
       </c>
+      <c r="H338" s="53" t="s">
+        <v>523</v>
+      </c>
       <c r="I338" s="18"/>
-      <c r="L338" s="10"/>
-    </row>
-    <row r="339" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K338" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L338" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M338" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C339" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E339" s="7">
         <v>1</v>
       </c>
       <c r="F339" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G339" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="L339" s="10"/>
-    </row>
-    <row r="340" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H339" s="53" t="s">
+        <v>490</v>
+      </c>
+      <c r="K339" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L339" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C340" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E340" s="7">
         <v>1</v>
       </c>
       <c r="F340" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G340" s="44" t="s">
         <v>174</v>
       </c>
+      <c r="H340" s="53" t="s">
+        <v>490</v>
+      </c>
       <c r="I340" s="18"/>
-      <c r="L340" s="10"/>
-    </row>
-    <row r="341" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="K340" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L340" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E341" s="7">
         <v>1</v>
       </c>
       <c r="F341" s="44" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>174</v>
       </c>
+      <c r="H341" s="53" t="s">
+        <v>522</v>
+      </c>
       <c r="I341" s="18"/>
-      <c r="L341" s="10"/>
-    </row>
-    <row r="342" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="K341" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L341" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M341" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C342" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E342" s="7">
         <v>1</v>
       </c>
       <c r="F342" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G342" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="L342" s="10"/>
-    </row>
-    <row r="343" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H342" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="K342" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L342" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M342" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C343" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E343" s="7">
         <v>1</v>
       </c>
       <c r="F343" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G343" s="44" t="s">
         <v>174</v>
       </c>
+      <c r="H343" s="44" t="s">
+        <v>524</v>
+      </c>
       <c r="I343" s="18"/>
-      <c r="L343" s="10"/>
-    </row>
-    <row r="344" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J343" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="K343" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L343" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E344" s="7">
         <v>1</v>
       </c>
       <c r="F344" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G344" s="44" t="s">
         <v>177</v>
       </c>
+      <c r="H344" s="44" t="s">
+        <v>531</v>
+      </c>
       <c r="I344" s="18"/>
       <c r="L344" s="10"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7">
@@ -10032,10 +10191,13 @@
       <c r="G345" s="44" t="s">
         <v>54</v>
       </c>
+      <c r="H345" s="44" t="s">
+        <v>531</v>
+      </c>
       <c r="I345" s="18"/>
       <c r="L345" s="10"/>
     </row>
-    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7">
@@ -10047,10 +10209,15 @@
       <c r="G346" s="44" t="s">
         <v>180</v>
       </c>
+      <c r="H346" s="44" t="s">
+        <v>518</v>
+      </c>
       <c r="I346" s="18"/>
-      <c r="L346" s="10"/>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J346" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7">
@@ -10063,34 +10230,42 @@
         <v>182</v>
       </c>
       <c r="I347" s="18"/>
-      <c r="L347" s="10"/>
-    </row>
-    <row r="348" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="K347" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L347" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C348" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D348" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E348" s="7">
         <v>1</v>
       </c>
       <c r="F348" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G348" s="44" t="s">
         <v>177</v>
       </c>
+      <c r="H348" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I348" s="18"/>
       <c r="L348" s="10"/>
     </row>
-    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7">
@@ -10102,10 +10277,13 @@
       <c r="G349" s="44" t="s">
         <v>184</v>
       </c>
+      <c r="H349" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I349" s="18"/>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="E350" s="15">
         <v>3</v>
@@ -10116,30 +10294,41 @@
       <c r="G350" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="L350" s="10"/>
-    </row>
-    <row r="351" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H350" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="K350" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L350" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C351" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E351" s="7">
         <v>1</v>
       </c>
       <c r="F351" s="44" t="s">
-        <v>254</v>
+        <v>534</v>
+      </c>
+      <c r="H351" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="L351" s="10"/>
     </row>
-    <row r="352" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7">
@@ -10151,9 +10340,12 @@
       <c r="G352" s="44" t="s">
         <v>186</v>
       </c>
+      <c r="H352" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="L352" s="10"/>
     </row>
-    <row r="353" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7">
@@ -10165,30 +10357,41 @@
       <c r="G353" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="L353" s="10"/>
-    </row>
-    <row r="354" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="H353" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="K353" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L353" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C354" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E354" s="7">
         <v>1</v>
       </c>
       <c r="F354" s="44" t="s">
-        <v>255</v>
+        <v>533</v>
+      </c>
+      <c r="H354" s="44" t="s">
+        <v>536</v>
       </c>
       <c r="L354" s="10"/>
     </row>
-    <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7">
@@ -10202,7 +10405,7 @@
       </c>
       <c r="L355" s="10"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7">
@@ -10216,7 +10419,7 @@
       </c>
       <c r="L356" s="10"/>
     </row>
-    <row r="357" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7">
@@ -10228,33 +10431,44 @@
       <c r="G357" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="L357" s="10"/>
-    </row>
-    <row r="358" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="K357" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L357" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M357" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C358" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D358" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E358" s="7">
         <v>1</v>
       </c>
       <c r="F358" s="44" t="s">
-        <v>256</v>
+        <v>532</v>
       </c>
       <c r="G358" s="44" t="s">
         <v>194</v>
       </c>
+      <c r="H358" s="44" t="s">
+        <v>536</v>
+      </c>
       <c r="L358" s="10"/>
     </row>
-    <row r="359" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7">
@@ -10268,58 +10482,58 @@
       </c>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
       <c r="D360" s="24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E360" s="7">
         <v>3</v>
       </c>
       <c r="F360" s="44" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G360" s="44" t="s">
         <v>195</v>
       </c>
       <c r="L360" s="10"/>
     </row>
-    <row r="361" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
       <c r="D361" s="24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E361" s="7">
         <v>4</v>
       </c>
       <c r="F361" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G361" s="44" t="s">
         <v>197</v>
       </c>
       <c r="L361" s="10"/>
     </row>
-    <row r="362" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
       <c r="D362" s="24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E362" s="7">
         <v>5</v>
       </c>
       <c r="F362" s="44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G362" s="44" t="s">
         <v>198</v>
       </c>
       <c r="L362" s="10"/>
     </row>
-    <row r="363" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
       <c r="D363" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E363" s="7">
         <v>6</v>
@@ -10332,23 +10546,23 @@
       </c>
       <c r="L363" s="10"/>
     </row>
-    <row r="364" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
       <c r="D364" s="24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E364" s="7">
         <v>7</v>
       </c>
       <c r="F364" s="44" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G364" s="44" t="s">
         <v>201</v>
       </c>
       <c r="L364" s="10"/>
     </row>
-    <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
       <c r="D365" s="24" t="s">
         <v>202</v>
@@ -10362,34 +10576,45 @@
       <c r="G365" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="L365" s="10"/>
-    </row>
-    <row r="366" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="J365" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="K365" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L365" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E366" s="7">
         <v>1</v>
       </c>
       <c r="F366" s="44" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G366" s="44" t="s">
         <v>205</v>
       </c>
+      <c r="H366" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I366" s="16"/>
       <c r="L366" s="10"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7">
@@ -10401,10 +10626,13 @@
       <c r="G367" s="44" t="s">
         <v>150</v>
       </c>
+      <c r="H367" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I367" s="16"/>
       <c r="L367" s="10"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7">
@@ -10416,32 +10644,43 @@
       <c r="G368" s="44" t="s">
         <v>208</v>
       </c>
+      <c r="H368" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I368" s="16"/>
-      <c r="L368" s="10"/>
-    </row>
-    <row r="369" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K368" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L368" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E369" s="7">
         <v>1</v>
       </c>
       <c r="F369" s="44" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="H369" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="I369" s="16"/>
       <c r="L369" s="10"/>
     </row>
-    <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
       <c r="D370" s="19"/>
       <c r="E370" s="7">
@@ -10453,10 +10692,13 @@
       <c r="G370" s="44" t="s">
         <v>176</v>
       </c>
+      <c r="H370" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I370" s="16"/>
       <c r="L370" s="10"/>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
       <c r="D371" s="19"/>
       <c r="E371" s="7">
@@ -10468,32 +10710,43 @@
       <c r="G371" s="44" t="s">
         <v>171</v>
       </c>
+      <c r="H371" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I371" s="16"/>
-      <c r="L371" s="10"/>
-    </row>
-    <row r="372" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="K371" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L371" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E372" s="7">
         <v>1</v>
       </c>
       <c r="F372" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="H372" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="I372" s="16"/>
       <c r="L372" s="10"/>
     </row>
-    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
       <c r="D373" s="19"/>
       <c r="E373" s="7">
@@ -10505,10 +10758,13 @@
       <c r="G373" s="44" t="s">
         <v>176</v>
       </c>
+      <c r="H373" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I373" s="16"/>
       <c r="L373" s="10"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
       <c r="D374" s="19"/>
       <c r="E374" s="7">
@@ -10520,10 +10776,13 @@
       <c r="G374" s="44" t="s">
         <v>171</v>
       </c>
+      <c r="H374" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I374" s="16"/>
       <c r="L374" s="10"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="7"/>
       <c r="D375" s="19"/>
       <c r="E375" s="7">
@@ -10535,10 +10794,13 @@
       <c r="G375" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="H375" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I375" s="16"/>
       <c r="L375" s="10"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="7"/>
       <c r="D376" s="19"/>
       <c r="E376" s="7">
@@ -10550,32 +10812,43 @@
       <c r="G376" s="44" t="s">
         <v>212</v>
       </c>
+      <c r="H376" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="I376" s="16"/>
-      <c r="L376" s="10"/>
-    </row>
-    <row r="377" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="K376" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L376" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C377" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E377" s="7">
         <v>1</v>
       </c>
       <c r="F377" s="44" t="s">
-        <v>263</v>
+        <v>537</v>
+      </c>
+      <c r="H377" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="I377" s="16"/>
       <c r="L377" s="10"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
       <c r="D378" s="19"/>
       <c r="E378" s="7">
@@ -10588,31 +10861,42 @@
         <v>150</v>
       </c>
       <c r="I378" s="16"/>
-      <c r="L378" s="10"/>
-    </row>
-    <row r="379" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K378" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L378" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M378" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C379" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D379" s="23" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E379" s="23">
         <v>1</v>
       </c>
       <c r="F379" s="44" t="s">
-        <v>264</v>
+        <v>259</v>
+      </c>
+      <c r="H379" s="44" t="s">
+        <v>539</v>
       </c>
       <c r="I379" s="18"/>
       <c r="L379" s="10"/>
     </row>
-    <row r="380" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
       <c r="D380" s="28" t="s">
         <v>214</v>
@@ -10627,31 +10911,39 @@
         <v>150</v>
       </c>
       <c r="I380" s="18"/>
-      <c r="L380" s="10"/>
-    </row>
-    <row r="381" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K380" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L380" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E381" s="7">
         <v>1</v>
       </c>
       <c r="F381" s="44" t="s">
-        <v>265</v>
+        <v>260</v>
+      </c>
+      <c r="H381" s="44" t="s">
+        <v>539</v>
       </c>
       <c r="I381" s="16"/>
       <c r="L381" s="10"/>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
       <c r="D382" s="28" t="s">
         <v>214</v>
@@ -10668,7 +10960,7 @@
       <c r="I382" s="16"/>
       <c r="L382" s="10"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
       <c r="D383" s="28" t="s">
         <v>215</v>
@@ -10685,7 +10977,7 @@
       <c r="I383" s="16"/>
       <c r="L383" s="10"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
       <c r="D384" s="28" t="s">
         <v>217</v>
@@ -10700,7 +10992,12 @@
         <v>219</v>
       </c>
       <c r="I384" s="16"/>
-      <c r="L384" s="10"/>
+      <c r="K384" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L384" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
@@ -12908,10 +13205,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K201:K692 K2:K199" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K199 K201:K345 K347:K692" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L201:L934 L2:L199" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L199 L201:L345 L347:L934" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12967,7 +13264,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Test Execution/Prapancha/Test Case- EMR IP_Reviewed.xlsx
+++ b/Test Execution/Prapancha/Test Case- EMR IP_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Prapancha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876E21C-343E-4F43-BD62-427894F75F73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8629CE-6AC9-49E1-A2C8-217DE3FC3DAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="583">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2319,6 +2319,138 @@
   </si>
   <si>
     <t xml:space="preserve">Field is missing under discharge summary </t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_079</t>
+  </si>
+  <si>
+    <t>Verify Billing details of a patient in In- patients tab&gt;&gt;prescriptions ,Diagnosis and Lab results gets reflected in Pharmacy Biling and lab Billing</t>
+  </si>
+  <si>
+    <t>Precondition:Admitted Patient should undergo billing in pharmacy &amp; Lab Biling
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on admitted/Transferred/Reference status of a patient </t>
+  </si>
+  <si>
+    <t>Click on prescriptions&lt;&lt;General Entries&lt;&lt;under patient IP Consultation</t>
+  </si>
+  <si>
+    <t>Enter data in fields and click save option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Diagnosis under General Entries of patient IP consultation  and enter details and click save and click next option </t>
+  </si>
+  <si>
+    <t>In Investigation Request page enter details and click save.</t>
+  </si>
+  <si>
+    <t>Verify the biling details of that patient gets displayed under   Lab results&lt;&lt;Investigation Results&lt;&lt;patient IP Consultation.</t>
+  </si>
+  <si>
+    <t>Biling details of Diagnosis,lab results should be displayed</t>
+  </si>
+  <si>
+    <t>Verify data in Billing module under pharmacy</t>
+  </si>
+  <si>
+    <t>Data should reflect in Biling module under pharmacy</t>
+  </si>
+  <si>
+    <t>EQ1-I387</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to send Request of type Reference to IP</t>
+  </si>
+  <si>
+    <t>Select Reference to IP from the Request Type drop down list</t>
+  </si>
+  <si>
+    <t>Select Emergency &gt;&gt;Choose Department from the drop down list&gt;&gt;Select Doctor from the list</t>
+  </si>
+  <si>
+    <t>Click on Add Doctor To list&gt;&gt;Click on Send Request</t>
+  </si>
+  <si>
+    <t>"Data saved"message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_080</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_081</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to Cancel Reference Request</t>
+  </si>
+  <si>
+    <t>Precondition:Admitted Patient should undergo billing in pharmacy &amp; Lab Biling
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-patient&gt;&gt;Genereal Request&gt;&gt;Reference Request</t>
+  </si>
+  <si>
+    <t>Click on Cancel Request&gt;&gt;Click on Yes</t>
+  </si>
+  <si>
+    <t>Confirmation message for Cancel Request should be displayed and the prescription should be deleted from the Reference History table</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to Mark the patient into treatment completed status</t>
+  </si>
+  <si>
+    <t>Click on Mark as Treatment Completed&gt;&gt;Enter Remarks&gt;&gt;Click on Treatment completed</t>
+  </si>
+  <si>
+    <t>Status changed to Treatment completed</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_082</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to attach file in surgery Request</t>
+  </si>
+  <si>
+    <t>Precondition:Admitted Patient should undergo billing in pharmacy &amp; Lab Biling
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-patient&gt;&gt;Genereal Request&gt;&gt;Surgery Request</t>
+  </si>
+  <si>
+    <t>Click on File Attach&gt;&gt;Click on Choose File&gt;&gt;Click on Upload</t>
+  </si>
+  <si>
+    <t>File should be uploaded</t>
+  </si>
+  <si>
+    <t>Click on View File</t>
+  </si>
+  <si>
+    <t>File should be viewed</t>
+  </si>
+  <si>
+    <t>Unable to view fille</t>
+  </si>
+  <si>
+    <t>EQ1-I389</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to delete attacheds file in surgery Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Delete </t>
+  </si>
+  <si>
+    <t>File should be deleted</t>
+  </si>
+  <si>
+    <t>Unable to delete file</t>
+  </si>
+  <si>
+    <t>EQ1-I391</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_083</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_084</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2673,22 +2805,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3008,9 +3143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S934"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G384" sqref="A309:H384"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3223,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="7"/>
@@ -3107,21 +3242,21 @@
       </c>
       <c r="P2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="S2" s="14">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="58"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="15">
         <v>1</v>
       </c>
@@ -3150,7 +3285,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="15">
         <v>2</v>
       </c>
@@ -3179,7 +3314,7 @@
       <c r="A5" s="9"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="58"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="15">
         <v>3</v>
       </c>
@@ -3204,7 +3339,7 @@
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="56"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="15">
         <v>4</v>
       </c>
@@ -3226,21 +3361,21 @@
       </c>
       <c r="P6" s="12">
         <f>COUNTA(L:L)-1</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="S6" s="14">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="15">
         <v>5</v>
       </c>
@@ -3274,7 +3409,7 @@
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="15">
         <v>6</v>
       </c>
@@ -3297,12 +3432,12 @@
       </c>
       <c r="S8" s="14">
         <f>COUNTA(M:M)-1</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="15">
         <v>7</v>
       </c>
@@ -3319,7 +3454,7 @@
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="15">
         <v>8</v>
       </c>
@@ -3336,7 +3471,7 @@
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="15">
         <v>9</v>
       </c>
@@ -3373,7 +3508,7 @@
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="7"/>
@@ -3386,7 +3521,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="7">
         <v>1</v>
       </c>
@@ -3408,7 +3543,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="54"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="7">
         <v>2</v>
       </c>
@@ -3430,7 +3565,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="54"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="7">
         <v>3</v>
       </c>
@@ -3447,7 +3582,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="D17" s="54"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="7">
         <v>4</v>
       </c>
@@ -3465,7 +3600,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="D18" s="54"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="7">
         <v>5</v>
       </c>
@@ -3483,7 +3618,7 @@
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="7">
         <v>6</v>
       </c>
@@ -3500,7 +3635,7 @@
     </row>
     <row r="20" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="D20" s="54"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="7">
         <v>7</v>
       </c>
@@ -3517,7 +3652,7 @@
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="7">
         <v>8</v>
       </c>
@@ -3534,7 +3669,7 @@
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="7">
         <v>9</v>
       </c>
@@ -3551,7 +3686,7 @@
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="D23" s="54"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="7">
         <v>10</v>
       </c>
@@ -3589,7 +3724,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="55" t="s">
         <v>264</v>
       </c>
       <c r="E25" s="36"/>
@@ -3602,7 +3737,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
@@ -3624,7 +3759,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="7">
         <v>2</v>
       </c>
@@ -3646,7 +3781,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="7">
         <v>3</v>
       </c>
@@ -3665,7 +3800,7 @@
       <c r="A29" s="9"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="7">
         <v>4</v>
       </c>
@@ -3682,7 +3817,7 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="7">
         <v>5</v>
       </c>
@@ -3699,7 +3834,7 @@
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="7">
         <v>6</v>
       </c>
@@ -3721,7 +3856,7 @@
       <c r="A32" s="7"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
-      <c r="D32" s="56"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="7">
         <v>7</v>
       </c>
@@ -3735,7 +3870,7 @@
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="D33" s="56"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="7">
         <v>8</v>
       </c>
@@ -3770,7 +3905,7 @@
       <c r="C35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="56" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="24"/>
@@ -3783,7 +3918,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="54"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="7">
         <v>1</v>
       </c>
@@ -3805,7 +3940,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="54"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="7">
         <v>2</v>
       </c>
@@ -3827,7 +3962,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="54"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="7">
         <v>3</v>
       </c>
@@ -3846,7 +3981,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="54"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="7">
         <v>4</v>
       </c>
@@ -3863,7 +3998,7 @@
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="D40" s="54"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="7">
         <v>5</v>
       </c>
@@ -3903,7 +4038,7 @@
       <c r="C42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E42" s="24"/>
@@ -3916,7 +4051,7 @@
       <c r="A43" s="37"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="54"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="7">
         <v>1</v>
       </c>
@@ -3938,7 +4073,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="7">
         <v>2</v>
       </c>
@@ -3960,7 +4095,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="7">
         <v>3</v>
       </c>
@@ -3979,7 +4114,7 @@
       <c r="A46" s="9"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="54"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="7">
         <v>4</v>
       </c>
@@ -3998,7 +4133,7 @@
       <c r="A47" s="9"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="54"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="7">
         <v>5</v>
       </c>
@@ -4192,7 +4327,7 @@
       <c r="C57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="56" t="s">
         <v>71</v>
       </c>
       <c r="E57" s="24"/>
@@ -4205,7 +4340,7 @@
       <c r="A58" s="9"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="54"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="7">
         <v>1</v>
       </c>
@@ -4227,7 +4362,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="54"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="7">
         <v>2</v>
       </c>
@@ -4249,7 +4384,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="54"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="7">
         <v>3</v>
       </c>
@@ -4268,7 +4403,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
-      <c r="D61" s="54"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="7">
         <v>4</v>
       </c>
@@ -4286,7 +4421,7 @@
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
-      <c r="D62" s="54"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="7">
         <v>5</v>
       </c>
@@ -4324,7 +4459,7 @@
       <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="56" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="7"/>
@@ -4337,7 +4472,7 @@
       <c r="A65" s="9"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="54"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="7">
         <v>1</v>
       </c>
@@ -4359,7 +4494,7 @@
       <c r="A66" s="9"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="54"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="7">
         <v>2</v>
       </c>
@@ -4381,7 +4516,7 @@
       <c r="A67" s="9"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="54"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="7">
         <v>3</v>
       </c>
@@ -4401,7 +4536,7 @@
       <c r="A68" s="9"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
-      <c r="D68" s="54"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="7">
         <v>4</v>
       </c>
@@ -4419,7 +4554,7 @@
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-      <c r="D69" s="54"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="7">
         <v>5</v>
       </c>
@@ -4437,7 +4572,7 @@
     </row>
     <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="D70" s="54"/>
+      <c r="D70" s="56"/>
       <c r="E70" s="7">
         <v>6</v>
       </c>
@@ -4454,7 +4589,7 @@
     </row>
     <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="D71" s="54"/>
+      <c r="D71" s="56"/>
       <c r="E71" s="7">
         <v>7</v>
       </c>
@@ -4474,7 +4609,7 @@
     </row>
     <row r="72" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="D72" s="54"/>
+      <c r="D72" s="56"/>
       <c r="E72" s="7">
         <v>8</v>
       </c>
@@ -4489,7 +4624,7 @@
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="D73" s="54"/>
+      <c r="D73" s="56"/>
       <c r="E73" s="7">
         <v>9</v>
       </c>
@@ -4503,7 +4638,7 @@
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="D74" s="54"/>
+      <c r="D74" s="56"/>
       <c r="E74" s="7">
         <v>10</v>
       </c>
@@ -4517,7 +4652,7 @@
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="D75" s="54"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="7">
         <v>11</v>
       </c>
@@ -4555,7 +4690,7 @@
       <c r="C77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="58" t="s">
         <v>418</v>
       </c>
       <c r="E77" s="24"/>
@@ -4569,7 +4704,7 @@
       <c r="A78" s="9"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="55"/>
+      <c r="D78" s="58"/>
       <c r="E78" s="7">
         <v>1</v>
       </c>
@@ -4591,7 +4726,7 @@
       <c r="A79" s="9"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="55"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="7">
         <v>2</v>
       </c>
@@ -4613,7 +4748,7 @@
       <c r="A80" s="9"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="55"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="7">
         <v>3</v>
       </c>
@@ -4633,7 +4768,7 @@
       <c r="A81" s="9"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="55"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="7">
         <v>4</v>
       </c>
@@ -4653,7 +4788,7 @@
       <c r="A82" s="9"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
-      <c r="D82" s="55"/>
+      <c r="D82" s="58"/>
       <c r="E82" s="42">
         <v>5</v>
       </c>
@@ -4693,7 +4828,7 @@
       <c r="C84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="58" t="s">
         <v>422</v>
       </c>
       <c r="E84" s="7"/>
@@ -4707,7 +4842,7 @@
       <c r="A85" s="9"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
-      <c r="D85" s="55"/>
+      <c r="D85" s="58"/>
       <c r="E85" s="7">
         <v>1</v>
       </c>
@@ -4729,7 +4864,7 @@
       <c r="A86" s="9"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
-      <c r="D86" s="55"/>
+      <c r="D86" s="58"/>
       <c r="E86" s="7">
         <v>2</v>
       </c>
@@ -4751,7 +4886,7 @@
       <c r="A87" s="9"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="55"/>
+      <c r="D87" s="58"/>
       <c r="E87" s="7">
         <v>3</v>
       </c>
@@ -4770,7 +4905,7 @@
       <c r="A88" s="9"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="55"/>
+      <c r="D88" s="58"/>
       <c r="E88" s="7">
         <v>4</v>
       </c>
@@ -4787,7 +4922,7 @@
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="D89" s="55"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="7">
         <v>5</v>
       </c>
@@ -4805,7 +4940,7 @@
     </row>
     <row r="90" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="D90" s="55"/>
+      <c r="D90" s="58"/>
       <c r="E90" s="7">
         <v>6</v>
       </c>
@@ -4822,7 +4957,7 @@
     </row>
     <row r="91" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="D91" s="55"/>
+      <c r="D91" s="58"/>
       <c r="E91" s="7">
         <v>7</v>
       </c>
@@ -4839,7 +4974,7 @@
     </row>
     <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="D92" s="55"/>
+      <c r="D92" s="58"/>
       <c r="E92" s="7">
         <v>8</v>
       </c>
@@ -4856,7 +4991,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="D93" s="55"/>
+      <c r="D93" s="58"/>
       <c r="E93" s="7">
         <v>9</v>
       </c>
@@ -4873,7 +5008,7 @@
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="D94" s="55"/>
+      <c r="D94" s="58"/>
       <c r="E94" s="7">
         <v>10</v>
       </c>
@@ -4911,7 +5046,7 @@
       <c r="C96" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="56" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="24"/>
@@ -4924,7 +5059,7 @@
       <c r="A97" s="9"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
-      <c r="D97" s="54"/>
+      <c r="D97" s="56"/>
       <c r="E97" s="7">
         <v>1</v>
       </c>
@@ -4946,7 +5081,7 @@
       <c r="A98" s="9"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
-      <c r="D98" s="54"/>
+      <c r="D98" s="56"/>
       <c r="E98" s="7">
         <v>2</v>
       </c>
@@ -4968,7 +5103,7 @@
       <c r="A99" s="9"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
-      <c r="D99" s="54"/>
+      <c r="D99" s="56"/>
       <c r="E99" s="7">
         <v>3</v>
       </c>
@@ -4986,7 +5121,7 @@
     </row>
     <row r="100" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="D100" s="54"/>
+      <c r="D100" s="56"/>
       <c r="E100" s="7">
         <v>4</v>
       </c>
@@ -5005,7 +5140,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="54"/>
+      <c r="D101" s="56"/>
       <c r="E101" s="7">
         <v>5</v>
       </c>
@@ -5025,7 +5160,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
-      <c r="D102" s="54"/>
+      <c r="D102" s="56"/>
       <c r="E102" s="7">
         <v>6</v>
       </c>
@@ -5045,7 +5180,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
-      <c r="D103" s="54"/>
+      <c r="D103" s="56"/>
       <c r="E103" s="7">
         <v>7</v>
       </c>
@@ -5065,7 +5200,7 @@
       <c r="A104" s="7"/>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
-      <c r="D104" s="54"/>
+      <c r="D104" s="56"/>
       <c r="E104" s="7">
         <v>8</v>
       </c>
@@ -5104,7 +5239,7 @@
       <c r="C106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="55" t="s">
+      <c r="D106" s="58" t="s">
         <v>434</v>
       </c>
       <c r="E106" s="7"/>
@@ -5117,7 +5252,7 @@
       <c r="A107" s="9"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="55"/>
+      <c r="D107" s="58"/>
       <c r="E107" s="7">
         <v>1</v>
       </c>
@@ -5139,7 +5274,7 @@
       <c r="A108" s="9"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
-      <c r="D108" s="55"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="7">
         <v>2</v>
       </c>
@@ -5161,7 +5296,7 @@
       <c r="A109" s="9"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
-      <c r="D109" s="55"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="7">
         <v>3</v>
       </c>
@@ -5179,7 +5314,7 @@
     </row>
     <row r="110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
-      <c r="D110" s="55"/>
+      <c r="D110" s="58"/>
       <c r="E110" s="7">
         <v>4</v>
       </c>
@@ -5221,7 +5356,7 @@
       <c r="C112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="56" t="s">
+      <c r="D112" s="55" t="s">
         <v>265</v>
       </c>
       <c r="E112" s="7"/>
@@ -5234,7 +5369,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
-      <c r="D113" s="56"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="7">
         <v>1</v>
       </c>
@@ -5256,7 +5391,7 @@
       <c r="A114" s="9"/>
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
-      <c r="D114" s="56"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="7">
         <v>2</v>
       </c>
@@ -5278,7 +5413,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="40"/>
       <c r="C115" s="40"/>
-      <c r="D115" s="56"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="7">
         <v>3</v>
       </c>
@@ -5298,7 +5433,7 @@
       <c r="A116" s="9"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
-      <c r="D116" s="56"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="7">
         <v>4</v>
       </c>
@@ -5315,7 +5450,7 @@
     </row>
     <row r="117" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="D117" s="56"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="7">
         <v>5</v>
       </c>
@@ -5353,7 +5488,7 @@
       <c r="C119" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="56" t="s">
+      <c r="D119" s="55" t="s">
         <v>440</v>
       </c>
       <c r="E119" s="7"/>
@@ -5365,7 +5500,7 @@
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="40"/>
       <c r="C120" s="40"/>
-      <c r="D120" s="56"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="7">
         <v>1</v>
       </c>
@@ -5386,7 +5521,7 @@
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="40"/>
       <c r="C121" s="40"/>
-      <c r="D121" s="56"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="7">
         <v>2</v>
       </c>
@@ -5407,7 +5542,7 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
-      <c r="D122" s="56"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="7">
         <v>3</v>
       </c>
@@ -5426,7 +5561,7 @@
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="40"/>
       <c r="C123" s="40"/>
-      <c r="D123" s="56"/>
+      <c r="D123" s="55"/>
       <c r="E123" s="7">
         <v>4</v>
       </c>
@@ -5443,7 +5578,7 @@
     </row>
     <row r="124" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="D124" s="56"/>
+      <c r="D124" s="55"/>
       <c r="E124" s="35">
         <v>5</v>
       </c>
@@ -5481,7 +5616,7 @@
       <c r="C126" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="54" t="s">
+      <c r="D126" s="56" t="s">
         <v>439</v>
       </c>
       <c r="E126" s="7"/>
@@ -5494,7 +5629,7 @@
       <c r="A127" s="9"/>
       <c r="B127" s="40"/>
       <c r="C127" s="40"/>
-      <c r="D127" s="54"/>
+      <c r="D127" s="56"/>
       <c r="E127" s="7">
         <v>1</v>
       </c>
@@ -5516,7 +5651,7 @@
       <c r="A128" s="9"/>
       <c r="B128" s="40"/>
       <c r="C128" s="40"/>
-      <c r="D128" s="54"/>
+      <c r="D128" s="56"/>
       <c r="E128" s="7">
         <v>2</v>
       </c>
@@ -5538,7 +5673,7 @@
       <c r="A129" s="9"/>
       <c r="B129" s="40"/>
       <c r="C129" s="40"/>
-      <c r="D129" s="54"/>
+      <c r="D129" s="56"/>
       <c r="E129" s="7">
         <v>3</v>
       </c>
@@ -5558,7 +5693,7 @@
       <c r="A130" s="9"/>
       <c r="B130" s="40"/>
       <c r="C130" s="40"/>
-      <c r="D130" s="54"/>
+      <c r="D130" s="56"/>
       <c r="E130" s="7">
         <v>4</v>
       </c>
@@ -5613,7 +5748,7 @@
       <c r="C133" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="54" t="s">
+      <c r="D133" s="56" t="s">
         <v>450</v>
       </c>
       <c r="E133" s="7"/>
@@ -5629,7 +5764,7 @@
       <c r="A134" s="9"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
-      <c r="D134" s="54"/>
+      <c r="D134" s="56"/>
       <c r="E134" s="7">
         <v>1</v>
       </c>
@@ -5651,7 +5786,7 @@
       <c r="A135" s="9"/>
       <c r="B135" s="40"/>
       <c r="C135" s="40"/>
-      <c r="D135" s="54"/>
+      <c r="D135" s="56"/>
       <c r="E135" s="7">
         <v>2</v>
       </c>
@@ -5673,7 +5808,7 @@
       <c r="A136" s="9"/>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
-      <c r="D136" s="54"/>
+      <c r="D136" s="56"/>
       <c r="E136" s="7">
         <v>3</v>
       </c>
@@ -5693,7 +5828,7 @@
       <c r="A137" s="9"/>
       <c r="B137" s="40"/>
       <c r="C137" s="40"/>
-      <c r="D137" s="54"/>
+      <c r="D137" s="56"/>
       <c r="E137" s="7">
         <v>4</v>
       </c>
@@ -5712,7 +5847,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="40"/>
       <c r="C138" s="40"/>
-      <c r="D138" s="54"/>
+      <c r="D138" s="56"/>
       <c r="E138" s="7">
         <v>5</v>
       </c>
@@ -5731,7 +5866,7 @@
       <c r="A139" s="9"/>
       <c r="B139" s="40"/>
       <c r="C139" s="40"/>
-      <c r="D139" s="54"/>
+      <c r="D139" s="56"/>
       <c r="E139" s="7">
         <v>6</v>
       </c>
@@ -5748,7 +5883,7 @@
     </row>
     <row r="140" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="D140" s="54"/>
+      <c r="D140" s="56"/>
       <c r="E140" s="7">
         <v>7</v>
       </c>
@@ -5786,7 +5921,7 @@
       <c r="C142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="54" t="s">
+      <c r="D142" s="56" t="s">
         <v>449</v>
       </c>
       <c r="E142" s="7"/>
@@ -5802,7 +5937,7 @@
       <c r="A143" s="9"/>
       <c r="B143" s="40"/>
       <c r="C143" s="40"/>
-      <c r="D143" s="54"/>
+      <c r="D143" s="56"/>
       <c r="E143" s="7">
         <v>1</v>
       </c>
@@ -5824,7 +5959,7 @@
       <c r="A144" s="9"/>
       <c r="B144" s="40"/>
       <c r="C144" s="40"/>
-      <c r="D144" s="54"/>
+      <c r="D144" s="56"/>
       <c r="E144" s="7">
         <v>2</v>
       </c>
@@ -5846,7 +5981,7 @@
       <c r="A145" s="9"/>
       <c r="B145" s="40"/>
       <c r="C145" s="40"/>
-      <c r="D145" s="54"/>
+      <c r="D145" s="56"/>
       <c r="E145" s="7">
         <v>3</v>
       </c>
@@ -5866,7 +6001,7 @@
       <c r="A146" s="9"/>
       <c r="B146" s="40"/>
       <c r="C146" s="40"/>
-      <c r="D146" s="54"/>
+      <c r="D146" s="56"/>
       <c r="E146" s="7">
         <v>4</v>
       </c>
@@ -5885,7 +6020,7 @@
       <c r="A147" s="9"/>
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
-      <c r="D147" s="54"/>
+      <c r="D147" s="56"/>
       <c r="E147" s="7">
         <v>5</v>
       </c>
@@ -5904,7 +6039,7 @@
       <c r="A148" s="9"/>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
-      <c r="D148" s="54"/>
+      <c r="D148" s="56"/>
       <c r="E148" s="7">
         <v>6</v>
       </c>
@@ -5923,7 +6058,7 @@
       <c r="A149" s="9"/>
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
-      <c r="D149" s="54"/>
+      <c r="D149" s="56"/>
       <c r="E149" s="7">
         <v>7</v>
       </c>
@@ -5961,7 +6096,7 @@
       <c r="C151" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="55" t="s">
+      <c r="D151" s="58" t="s">
         <v>454</v>
       </c>
       <c r="E151" s="7"/>
@@ -5974,7 +6109,7 @@
       <c r="A152" s="9"/>
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
-      <c r="D152" s="55"/>
+      <c r="D152" s="58"/>
       <c r="E152" s="7">
         <v>1</v>
       </c>
@@ -5996,7 +6131,7 @@
       <c r="A153" s="9"/>
       <c r="B153" s="40"/>
       <c r="C153" s="40"/>
-      <c r="D153" s="55"/>
+      <c r="D153" s="58"/>
       <c r="E153" s="7">
         <v>2</v>
       </c>
@@ -6018,7 +6153,7 @@
       <c r="A154" s="9"/>
       <c r="B154" s="40"/>
       <c r="C154" s="40"/>
-      <c r="D154" s="55"/>
+      <c r="D154" s="58"/>
       <c r="E154" s="7">
         <v>3</v>
       </c>
@@ -6038,7 +6173,7 @@
       <c r="A155" s="9"/>
       <c r="B155" s="40"/>
       <c r="C155" s="40"/>
-      <c r="D155" s="55"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="7">
         <v>4</v>
       </c>
@@ -6057,7 +6192,7 @@
       <c r="A156" s="9"/>
       <c r="B156" s="40"/>
       <c r="C156" s="40"/>
-      <c r="D156" s="55"/>
+      <c r="D156" s="58"/>
       <c r="E156" s="7">
         <v>5</v>
       </c>
@@ -6173,7 +6308,7 @@
       <c r="C163" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="58" t="s">
         <v>460</v>
       </c>
       <c r="E163" s="9"/>
@@ -6187,7 +6322,7 @@
       <c r="A164" s="9"/>
       <c r="B164" s="40"/>
       <c r="C164" s="40"/>
-      <c r="D164" s="55"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="7">
         <v>1</v>
       </c>
@@ -6209,7 +6344,7 @@
       <c r="A165" s="9"/>
       <c r="B165" s="40"/>
       <c r="C165" s="40"/>
-      <c r="D165" s="55"/>
+      <c r="D165" s="58"/>
       <c r="E165" s="7">
         <v>2</v>
       </c>
@@ -6231,7 +6366,7 @@
       <c r="A166" s="9"/>
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
-      <c r="D166" s="55"/>
+      <c r="D166" s="58"/>
       <c r="E166" s="7">
         <v>3</v>
       </c>
@@ -6251,7 +6386,7 @@
       <c r="A167" s="9"/>
       <c r="B167" s="40"/>
       <c r="C167" s="40"/>
-      <c r="D167" s="55"/>
+      <c r="D167" s="58"/>
       <c r="E167" s="7">
         <v>4</v>
       </c>
@@ -6270,7 +6405,7 @@
       <c r="A168" s="9"/>
       <c r="B168" s="40"/>
       <c r="C168" s="40"/>
-      <c r="D168" s="55"/>
+      <c r="D168" s="58"/>
       <c r="E168" s="7">
         <v>5</v>
       </c>
@@ -6310,7 +6445,7 @@
       <c r="C170" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D170" s="55" t="s">
+      <c r="D170" s="58" t="s">
         <v>462</v>
       </c>
       <c r="E170" s="7"/>
@@ -6324,7 +6459,7 @@
       <c r="A171" s="9"/>
       <c r="B171" s="40"/>
       <c r="C171" s="40"/>
-      <c r="D171" s="55"/>
+      <c r="D171" s="58"/>
       <c r="E171" s="7">
         <v>1</v>
       </c>
@@ -6346,7 +6481,7 @@
       <c r="A172" s="9"/>
       <c r="B172" s="40"/>
       <c r="C172" s="40"/>
-      <c r="D172" s="55"/>
+      <c r="D172" s="58"/>
       <c r="E172" s="7">
         <v>2</v>
       </c>
@@ -6368,7 +6503,7 @@
       <c r="A173" s="9"/>
       <c r="B173" s="40"/>
       <c r="C173" s="40"/>
-      <c r="D173" s="55"/>
+      <c r="D173" s="58"/>
       <c r="E173" s="7">
         <v>3</v>
       </c>
@@ -6388,7 +6523,7 @@
       <c r="A174" s="9"/>
       <c r="B174" s="40"/>
       <c r="C174" s="40"/>
-      <c r="D174" s="55"/>
+      <c r="D174" s="58"/>
       <c r="E174" s="7">
         <v>4</v>
       </c>
@@ -6407,7 +6542,7 @@
       <c r="A175" s="9"/>
       <c r="B175" s="40"/>
       <c r="C175" s="40"/>
-      <c r="D175" s="55"/>
+      <c r="D175" s="58"/>
       <c r="E175" s="7">
         <v>5</v>
       </c>
@@ -6447,7 +6582,7 @@
       <c r="C177" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D177" s="55" t="s">
+      <c r="D177" s="58" t="s">
         <v>466</v>
       </c>
       <c r="E177" s="7"/>
@@ -6464,7 +6599,7 @@
       <c r="A178" s="9"/>
       <c r="B178" s="40"/>
       <c r="C178" s="40"/>
-      <c r="D178" s="55"/>
+      <c r="D178" s="58"/>
       <c r="E178" s="7">
         <v>1</v>
       </c>
@@ -6486,7 +6621,7 @@
       <c r="A179" s="9"/>
       <c r="B179" s="40"/>
       <c r="C179" s="40"/>
-      <c r="D179" s="55"/>
+      <c r="D179" s="58"/>
       <c r="E179" s="7">
         <v>2</v>
       </c>
@@ -6508,7 +6643,7 @@
       <c r="A180" s="9"/>
       <c r="B180" s="40"/>
       <c r="C180" s="40"/>
-      <c r="D180" s="55"/>
+      <c r="D180" s="58"/>
       <c r="E180" s="7">
         <v>3</v>
       </c>
@@ -6528,7 +6663,7 @@
       <c r="A181" s="9"/>
       <c r="B181" s="40"/>
       <c r="C181" s="40"/>
-      <c r="D181" s="55"/>
+      <c r="D181" s="58"/>
       <c r="E181" s="7">
         <v>4</v>
       </c>
@@ -6547,7 +6682,7 @@
       <c r="A182" s="9"/>
       <c r="B182" s="40"/>
       <c r="C182" s="40"/>
-      <c r="D182" s="55"/>
+      <c r="D182" s="58"/>
       <c r="E182" s="7">
         <v>5</v>
       </c>
@@ -6587,7 +6722,7 @@
       <c r="C184" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D184" s="54" t="s">
+      <c r="D184" s="56" t="s">
         <v>105</v>
       </c>
       <c r="E184" s="7"/>
@@ -6601,7 +6736,7 @@
       <c r="A185" s="9"/>
       <c r="B185" s="40"/>
       <c r="C185" s="40"/>
-      <c r="D185" s="54"/>
+      <c r="D185" s="56"/>
       <c r="E185" s="7">
         <v>1</v>
       </c>
@@ -6623,7 +6758,7 @@
       <c r="A186" s="9"/>
       <c r="B186" s="40"/>
       <c r="C186" s="40"/>
-      <c r="D186" s="54"/>
+      <c r="D186" s="56"/>
       <c r="E186" s="7">
         <v>2</v>
       </c>
@@ -6645,7 +6780,7 @@
       <c r="A187" s="9"/>
       <c r="B187" s="40"/>
       <c r="C187" s="40"/>
-      <c r="D187" s="54"/>
+      <c r="D187" s="56"/>
       <c r="E187" s="7">
         <v>3</v>
       </c>
@@ -6665,7 +6800,7 @@
       <c r="A188" s="9"/>
       <c r="B188" s="40"/>
       <c r="C188" s="40"/>
-      <c r="D188" s="54"/>
+      <c r="D188" s="56"/>
       <c r="E188" s="7">
         <v>4</v>
       </c>
@@ -6684,7 +6819,7 @@
       <c r="A189" s="9"/>
       <c r="B189" s="40"/>
       <c r="C189" s="40"/>
-      <c r="D189" s="54"/>
+      <c r="D189" s="56"/>
       <c r="E189" s="7">
         <v>5</v>
       </c>
@@ -6704,7 +6839,7 @@
       <c r="A190" s="9"/>
       <c r="B190" s="40"/>
       <c r="C190" s="40"/>
-      <c r="D190" s="54"/>
+      <c r="D190" s="56"/>
       <c r="E190" s="7">
         <v>6</v>
       </c>
@@ -6744,7 +6879,7 @@
       <c r="C192" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D192" s="54" t="s">
+      <c r="D192" s="56" t="s">
         <v>106</v>
       </c>
       <c r="E192" s="7">
@@ -6760,7 +6895,7 @@
       <c r="A193" s="9"/>
       <c r="B193" s="40"/>
       <c r="C193" s="40"/>
-      <c r="D193" s="54"/>
+      <c r="D193" s="56"/>
       <c r="E193" s="7">
         <v>1</v>
       </c>
@@ -6782,7 +6917,7 @@
       <c r="A194" s="9"/>
       <c r="B194" s="40"/>
       <c r="C194" s="40"/>
-      <c r="D194" s="54"/>
+      <c r="D194" s="56"/>
       <c r="E194" s="7">
         <v>2</v>
       </c>
@@ -6804,7 +6939,7 @@
       <c r="A195" s="9"/>
       <c r="B195" s="40"/>
       <c r="C195" s="40"/>
-      <c r="D195" s="54"/>
+      <c r="D195" s="56"/>
       <c r="E195" s="7">
         <v>3</v>
       </c>
@@ -6824,7 +6959,7 @@
       <c r="A196" s="9"/>
       <c r="B196" s="40"/>
       <c r="C196" s="40"/>
-      <c r="D196" s="54"/>
+      <c r="D196" s="56"/>
       <c r="E196" s="7">
         <v>4</v>
       </c>
@@ -6843,7 +6978,7 @@
       <c r="A197" s="9"/>
       <c r="B197" s="40"/>
       <c r="C197" s="40"/>
-      <c r="D197" s="54"/>
+      <c r="D197" s="56"/>
       <c r="E197" s="7">
         <v>5</v>
       </c>
@@ -6863,7 +6998,7 @@
       <c r="A198" s="9"/>
       <c r="B198" s="40"/>
       <c r="C198" s="40"/>
-      <c r="D198" s="54"/>
+      <c r="D198" s="56"/>
       <c r="E198" s="7">
         <v>6</v>
       </c>
@@ -6886,7 +7021,7 @@
       <c r="A199" s="9"/>
       <c r="B199" s="40"/>
       <c r="C199" s="40"/>
-      <c r="D199" s="54"/>
+      <c r="D199" s="56"/>
       <c r="E199" s="7">
         <v>7</v>
       </c>
@@ -6922,7 +7057,7 @@
       <c r="C201" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D201" s="55" t="s">
+      <c r="D201" s="58" t="s">
         <v>473</v>
       </c>
       <c r="E201" s="7"/>
@@ -6936,7 +7071,7 @@
       <c r="A202" s="9"/>
       <c r="B202" s="40"/>
       <c r="C202" s="40"/>
-      <c r="D202" s="55"/>
+      <c r="D202" s="58"/>
       <c r="E202" s="7">
         <v>1</v>
       </c>
@@ -6958,7 +7093,7 @@
       <c r="A203" s="9"/>
       <c r="B203" s="40"/>
       <c r="C203" s="40"/>
-      <c r="D203" s="55"/>
+      <c r="D203" s="58"/>
       <c r="E203" s="7">
         <v>2</v>
       </c>
@@ -6980,7 +7115,7 @@
       <c r="A204" s="9"/>
       <c r="B204" s="40"/>
       <c r="C204" s="40"/>
-      <c r="D204" s="55"/>
+      <c r="D204" s="58"/>
       <c r="E204" s="7">
         <v>3</v>
       </c>
@@ -7000,7 +7135,7 @@
       <c r="A205" s="9"/>
       <c r="B205" s="40"/>
       <c r="C205" s="40"/>
-      <c r="D205" s="55"/>
+      <c r="D205" s="58"/>
       <c r="E205" s="7">
         <v>4</v>
       </c>
@@ -7019,7 +7154,7 @@
       <c r="A206" s="9"/>
       <c r="B206" s="40"/>
       <c r="C206" s="40"/>
-      <c r="D206" s="55"/>
+      <c r="D206" s="58"/>
       <c r="E206" s="7">
         <v>5</v>
       </c>
@@ -7039,7 +7174,7 @@
       <c r="A207" s="9"/>
       <c r="B207" s="40"/>
       <c r="C207" s="40"/>
-      <c r="D207" s="55"/>
+      <c r="D207" s="58"/>
       <c r="E207" s="7">
         <v>6</v>
       </c>
@@ -7059,7 +7194,7 @@
       <c r="A208" s="9"/>
       <c r="B208" s="40"/>
       <c r="C208" s="40"/>
-      <c r="D208" s="55"/>
+      <c r="D208" s="58"/>
       <c r="E208" s="7">
         <v>7</v>
       </c>
@@ -7077,7 +7212,7 @@
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="D209" s="55"/>
+      <c r="D209" s="58"/>
       <c r="E209" s="7">
         <v>8</v>
       </c>
@@ -7117,7 +7252,7 @@
       <c r="C211" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="59" t="s">
+      <c r="D211" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E211" s="27">
@@ -7139,7 +7274,7 @@
       <c r="A212" s="25"/>
       <c r="B212" s="45"/>
       <c r="C212" s="39"/>
-      <c r="D212" s="59"/>
+      <c r="D212" s="57"/>
       <c r="E212" s="7">
         <v>1</v>
       </c>
@@ -7161,7 +7296,7 @@
       <c r="A213" s="25"/>
       <c r="B213" s="39"/>
       <c r="C213" s="39"/>
-      <c r="D213" s="59"/>
+      <c r="D213" s="57"/>
       <c r="E213" s="7">
         <v>2</v>
       </c>
@@ -7183,7 +7318,7 @@
       <c r="A214" s="25"/>
       <c r="B214" s="45"/>
       <c r="C214" s="45"/>
-      <c r="D214" s="59"/>
+      <c r="D214" s="57"/>
       <c r="E214" s="7">
         <v>3</v>
       </c>
@@ -7203,7 +7338,7 @@
       <c r="A215" s="25"/>
       <c r="B215" s="45"/>
       <c r="C215" s="45"/>
-      <c r="D215" s="59"/>
+      <c r="D215" s="57"/>
       <c r="E215" s="7">
         <v>4</v>
       </c>
@@ -7222,7 +7357,7 @@
       <c r="A216" s="25"/>
       <c r="B216" s="39"/>
       <c r="C216" s="39"/>
-      <c r="D216" s="59"/>
+      <c r="D216" s="57"/>
       <c r="E216" s="7">
         <v>5</v>
       </c>
@@ -7242,7 +7377,7 @@
       <c r="A217" s="25"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
-      <c r="D217" s="59"/>
+      <c r="D217" s="57"/>
       <c r="E217" s="7">
         <v>6</v>
       </c>
@@ -7262,7 +7397,7 @@
       <c r="A218" s="25"/>
       <c r="B218" s="39"/>
       <c r="C218" s="39"/>
-      <c r="D218" s="59"/>
+      <c r="D218" s="57"/>
       <c r="E218" s="7">
         <v>7</v>
       </c>
@@ -7282,7 +7417,7 @@
       <c r="A219" s="25"/>
       <c r="B219" s="39"/>
       <c r="C219" s="45"/>
-      <c r="D219" s="59"/>
+      <c r="D219" s="57"/>
       <c r="E219" s="7">
         <v>8</v>
       </c>
@@ -7302,7 +7437,7 @@
       <c r="A220" s="27"/>
       <c r="B220" s="26"/>
       <c r="C220" s="45"/>
-      <c r="D220" s="59"/>
+      <c r="D220" s="57"/>
       <c r="E220" s="27">
         <v>9</v>
       </c>
@@ -7346,7 +7481,7 @@
       <c r="C222" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D222" s="54" t="s">
+      <c r="D222" s="56" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="7">
@@ -7362,7 +7497,7 @@
       <c r="A223" s="9"/>
       <c r="B223" s="46"/>
       <c r="C223" s="46"/>
-      <c r="D223" s="54"/>
+      <c r="D223" s="56"/>
       <c r="E223" s="7">
         <v>1</v>
       </c>
@@ -7384,7 +7519,7 @@
       <c r="A224" s="9"/>
       <c r="B224" s="46"/>
       <c r="C224" s="46"/>
-      <c r="D224" s="54"/>
+      <c r="D224" s="56"/>
       <c r="E224" s="7">
         <v>2</v>
       </c>
@@ -7404,7 +7539,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="D225" s="54"/>
+      <c r="D225" s="56"/>
       <c r="E225" s="7">
         <v>3</v>
       </c>
@@ -7424,7 +7559,7 @@
       <c r="A226" s="7"/>
       <c r="B226" s="46"/>
       <c r="C226" s="46"/>
-      <c r="D226" s="54"/>
+      <c r="D226" s="56"/>
       <c r="E226" s="7">
         <v>4</v>
       </c>
@@ -7443,7 +7578,7 @@
       <c r="A227" s="7"/>
       <c r="B227" s="46"/>
       <c r="C227" s="46"/>
-      <c r="D227" s="54"/>
+      <c r="D227" s="56"/>
       <c r="E227" s="7">
         <v>5</v>
       </c>
@@ -7463,7 +7598,7 @@
       <c r="A228" s="7"/>
       <c r="B228" s="46"/>
       <c r="C228" s="46"/>
-      <c r="D228" s="54"/>
+      <c r="D228" s="56"/>
       <c r="E228" s="7">
         <v>6</v>
       </c>
@@ -7483,7 +7618,7 @@
       <c r="A229" s="7"/>
       <c r="B229" s="46"/>
       <c r="C229" s="46"/>
-      <c r="D229" s="54"/>
+      <c r="D229" s="56"/>
       <c r="E229" s="7">
         <v>7</v>
       </c>
@@ -7503,7 +7638,7 @@
       <c r="A230" s="7"/>
       <c r="B230" s="46"/>
       <c r="C230" s="46"/>
-      <c r="D230" s="54"/>
+      <c r="D230" s="56"/>
       <c r="E230" s="7">
         <v>8</v>
       </c>
@@ -7523,7 +7658,7 @@
       <c r="A231" s="7"/>
       <c r="B231" s="46"/>
       <c r="C231" s="46"/>
-      <c r="D231" s="54"/>
+      <c r="D231" s="56"/>
       <c r="E231" s="27">
         <v>9</v>
       </c>
@@ -7543,7 +7678,7 @@
       <c r="A232" s="7"/>
       <c r="B232" s="46"/>
       <c r="C232" s="46"/>
-      <c r="D232" s="54"/>
+      <c r="D232" s="56"/>
       <c r="E232" s="7">
         <v>10</v>
       </c>
@@ -7583,7 +7718,7 @@
       <c r="C234" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D234" s="56" t="s">
+      <c r="D234" s="55" t="s">
         <v>266</v>
       </c>
       <c r="E234" s="7"/>
@@ -7597,7 +7732,7 @@
       <c r="A235" s="9"/>
       <c r="B235" s="46"/>
       <c r="C235" s="46"/>
-      <c r="D235" s="56"/>
+      <c r="D235" s="55"/>
       <c r="E235" s="7">
         <v>1</v>
       </c>
@@ -7619,7 +7754,7 @@
       <c r="A236" s="9"/>
       <c r="B236" s="46"/>
       <c r="C236" s="46"/>
-      <c r="D236" s="56"/>
+      <c r="D236" s="55"/>
       <c r="E236" s="7">
         <v>2</v>
       </c>
@@ -7639,7 +7774,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="D237" s="56"/>
+      <c r="D237" s="55"/>
       <c r="E237" s="7">
         <v>3</v>
       </c>
@@ -7659,7 +7794,7 @@
       <c r="A238" s="7"/>
       <c r="B238" s="46"/>
       <c r="C238" s="46"/>
-      <c r="D238" s="56"/>
+      <c r="D238" s="55"/>
       <c r="E238" s="7">
         <v>4</v>
       </c>
@@ -7678,7 +7813,7 @@
       <c r="A239" s="7"/>
       <c r="B239" s="46"/>
       <c r="C239" s="46"/>
-      <c r="D239" s="56"/>
+      <c r="D239" s="55"/>
       <c r="E239" s="7">
         <v>5</v>
       </c>
@@ -7698,7 +7833,7 @@
       <c r="A240" s="7"/>
       <c r="B240" s="46"/>
       <c r="C240" s="46"/>
-      <c r="D240" s="56"/>
+      <c r="D240" s="55"/>
       <c r="E240" s="7">
         <v>6</v>
       </c>
@@ -7718,7 +7853,7 @@
       <c r="A241" s="7"/>
       <c r="B241" s="46"/>
       <c r="C241" s="46"/>
-      <c r="D241" s="56"/>
+      <c r="D241" s="55"/>
       <c r="E241" s="7">
         <v>7</v>
       </c>
@@ -7738,7 +7873,7 @@
       <c r="A242" s="7"/>
       <c r="B242" s="46"/>
       <c r="C242" s="46"/>
-      <c r="D242" s="56"/>
+      <c r="D242" s="55"/>
       <c r="E242" s="7">
         <v>8</v>
       </c>
@@ -7778,7 +7913,7 @@
       <c r="C244" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D244" s="56" t="s">
+      <c r="D244" s="55" t="s">
         <v>267</v>
       </c>
       <c r="E244" s="7"/>
@@ -7792,7 +7927,7 @@
       <c r="A245" s="9"/>
       <c r="B245" s="46"/>
       <c r="C245" s="46"/>
-      <c r="D245" s="56"/>
+      <c r="D245" s="55"/>
       <c r="E245" s="7">
         <v>1</v>
       </c>
@@ -7814,7 +7949,7 @@
       <c r="A246" s="9"/>
       <c r="B246" s="46"/>
       <c r="C246" s="46"/>
-      <c r="D246" s="56"/>
+      <c r="D246" s="55"/>
       <c r="E246" s="7">
         <v>2</v>
       </c>
@@ -7836,7 +7971,7 @@
       <c r="A247" s="9"/>
       <c r="B247" s="46"/>
       <c r="C247" s="46"/>
-      <c r="D247" s="56"/>
+      <c r="D247" s="55"/>
       <c r="E247" s="7">
         <v>3</v>
       </c>
@@ -7856,7 +7991,7 @@
       <c r="A248" s="9"/>
       <c r="B248" s="46"/>
       <c r="C248" s="46"/>
-      <c r="D248" s="56"/>
+      <c r="D248" s="55"/>
       <c r="E248" s="7">
         <v>4</v>
       </c>
@@ -7875,7 +8010,7 @@
       <c r="A249" s="9"/>
       <c r="B249" s="46"/>
       <c r="C249" s="46"/>
-      <c r="D249" s="56"/>
+      <c r="D249" s="55"/>
       <c r="E249" s="7">
         <v>5</v>
       </c>
@@ -7895,7 +8030,7 @@
       <c r="A250" s="9"/>
       <c r="B250" s="46"/>
       <c r="C250" s="46"/>
-      <c r="D250" s="56"/>
+      <c r="D250" s="55"/>
       <c r="E250" s="7">
         <v>6</v>
       </c>
@@ -7915,7 +8050,7 @@
       <c r="A251" s="9"/>
       <c r="B251" s="46"/>
       <c r="C251" s="46"/>
-      <c r="D251" s="56"/>
+      <c r="D251" s="55"/>
       <c r="E251" s="7">
         <v>7</v>
       </c>
@@ -7958,7 +8093,7 @@
       <c r="C253" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D253" s="56" t="s">
+      <c r="D253" s="55" t="s">
         <v>268</v>
       </c>
       <c r="E253" s="7"/>
@@ -7970,7 +8105,7 @@
     </row>
     <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="D254" s="56"/>
+      <c r="D254" s="55"/>
       <c r="E254" s="7">
         <v>1</v>
       </c>
@@ -7992,7 +8127,7 @@
       <c r="A255" s="7"/>
       <c r="B255" s="46"/>
       <c r="C255" s="46"/>
-      <c r="D255" s="56"/>
+      <c r="D255" s="55"/>
       <c r="E255" s="7">
         <v>2</v>
       </c>
@@ -8014,7 +8149,7 @@
       <c r="A256" s="7"/>
       <c r="B256" s="46"/>
       <c r="C256" s="46"/>
-      <c r="D256" s="56"/>
+      <c r="D256" s="55"/>
       <c r="E256" s="7">
         <v>3</v>
       </c>
@@ -8034,7 +8169,7 @@
       <c r="A257" s="7"/>
       <c r="B257" s="46"/>
       <c r="C257" s="46"/>
-      <c r="D257" s="56"/>
+      <c r="D257" s="55"/>
       <c r="E257" s="7">
         <v>4</v>
       </c>
@@ -8053,7 +8188,7 @@
       <c r="A258" s="7"/>
       <c r="B258" s="46"/>
       <c r="C258" s="46"/>
-      <c r="D258" s="56"/>
+      <c r="D258" s="55"/>
       <c r="E258" s="7">
         <v>5</v>
       </c>
@@ -8073,7 +8208,7 @@
       <c r="A259" s="7"/>
       <c r="B259" s="46"/>
       <c r="C259" s="46"/>
-      <c r="D259" s="56"/>
+      <c r="D259" s="55"/>
       <c r="E259" s="7">
         <v>6</v>
       </c>
@@ -8093,7 +8228,7 @@
       <c r="A260" s="7"/>
       <c r="B260" s="46"/>
       <c r="C260" s="46"/>
-      <c r="D260" s="56"/>
+      <c r="D260" s="55"/>
       <c r="E260" s="7">
         <v>7</v>
       </c>
@@ -8113,7 +8248,7 @@
       <c r="A261" s="7"/>
       <c r="B261" s="46"/>
       <c r="C261" s="46"/>
-      <c r="D261" s="56"/>
+      <c r="D261" s="55"/>
       <c r="E261" s="7">
         <v>8</v>
       </c>
@@ -8153,7 +8288,7 @@
       <c r="C263" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D263" s="56" t="s">
+      <c r="D263" s="55" t="s">
         <v>269</v>
       </c>
       <c r="E263" s="7"/>
@@ -8167,7 +8302,7 @@
       <c r="A264" s="9"/>
       <c r="B264" s="46"/>
       <c r="C264" s="46"/>
-      <c r="D264" s="56"/>
+      <c r="D264" s="55"/>
       <c r="E264" s="7">
         <v>1</v>
       </c>
@@ -8189,7 +8324,7 @@
       <c r="A265" s="9"/>
       <c r="B265" s="46"/>
       <c r="C265" s="46"/>
-      <c r="D265" s="56"/>
+      <c r="D265" s="55"/>
       <c r="E265" s="7">
         <v>2</v>
       </c>
@@ -8211,7 +8346,7 @@
       <c r="A266" s="9"/>
       <c r="B266" s="46"/>
       <c r="C266" s="46"/>
-      <c r="D266" s="56"/>
+      <c r="D266" s="55"/>
       <c r="E266" s="7">
         <v>3</v>
       </c>
@@ -8231,7 +8366,7 @@
       <c r="A267" s="9"/>
       <c r="B267" s="46"/>
       <c r="C267" s="46"/>
-      <c r="D267" s="56"/>
+      <c r="D267" s="55"/>
       <c r="E267" s="7">
         <v>4</v>
       </c>
@@ -8250,7 +8385,7 @@
       <c r="A268" s="9"/>
       <c r="B268" s="46"/>
       <c r="C268" s="46"/>
-      <c r="D268" s="56"/>
+      <c r="D268" s="55"/>
       <c r="E268" s="7">
         <v>5</v>
       </c>
@@ -8270,7 +8405,7 @@
       <c r="A269" s="9"/>
       <c r="B269" s="46"/>
       <c r="C269" s="46"/>
-      <c r="D269" s="56"/>
+      <c r="D269" s="55"/>
       <c r="E269" s="7">
         <v>6</v>
       </c>
@@ -8290,7 +8425,7 @@
       <c r="A270" s="9"/>
       <c r="B270" s="46"/>
       <c r="C270" s="46"/>
-      <c r="D270" s="56"/>
+      <c r="D270" s="55"/>
       <c r="E270" s="7">
         <v>7</v>
       </c>
@@ -8330,7 +8465,7 @@
       <c r="C272" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="56" t="s">
+      <c r="D272" s="55" t="s">
         <v>270</v>
       </c>
       <c r="E272" s="7"/>
@@ -8344,7 +8479,7 @@
       <c r="A273" s="9"/>
       <c r="B273" s="46"/>
       <c r="C273" s="46"/>
-      <c r="D273" s="56"/>
+      <c r="D273" s="55"/>
       <c r="E273" s="7">
         <v>1</v>
       </c>
@@ -8366,7 +8501,7 @@
       <c r="A274" s="9"/>
       <c r="B274" s="46"/>
       <c r="C274" s="46"/>
-      <c r="D274" s="56"/>
+      <c r="D274" s="55"/>
       <c r="E274" s="7">
         <v>2</v>
       </c>
@@ -8388,7 +8523,7 @@
       <c r="A275" s="9"/>
       <c r="B275" s="46"/>
       <c r="C275" s="46"/>
-      <c r="D275" s="56"/>
+      <c r="D275" s="55"/>
       <c r="E275" s="7">
         <v>3</v>
       </c>
@@ -8408,7 +8543,7 @@
       <c r="A276" s="9"/>
       <c r="B276" s="46"/>
       <c r="C276" s="46"/>
-      <c r="D276" s="56"/>
+      <c r="D276" s="55"/>
       <c r="E276" s="7">
         <v>4</v>
       </c>
@@ -8427,7 +8562,7 @@
       <c r="A277" s="9"/>
       <c r="B277" s="46"/>
       <c r="C277" s="46"/>
-      <c r="D277" s="56"/>
+      <c r="D277" s="55"/>
       <c r="E277" s="7">
         <v>5</v>
       </c>
@@ -8447,7 +8582,7 @@
       <c r="A278" s="9"/>
       <c r="B278" s="46"/>
       <c r="C278" s="46"/>
-      <c r="D278" s="56"/>
+      <c r="D278" s="55"/>
       <c r="E278" s="7">
         <v>6</v>
       </c>
@@ -10999,303 +11134,648 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
       <c r="D385" s="7"/>
       <c r="L385" s="10"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A386" s="20"/>
-      <c r="D386" s="7"/>
-      <c r="E386" s="7"/>
+    <row r="386" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A386" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="B386" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C386" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E386" s="7">
+        <v>1</v>
+      </c>
+      <c r="F386" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="H386" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="L386" s="10"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="20"/>
+      <c r="B387" s="54"/>
+      <c r="C387" s="54"/>
       <c r="D387" s="7"/>
+      <c r="E387" s="15">
+        <v>2</v>
+      </c>
+      <c r="F387" s="44" t="s">
+        <v>543</v>
+      </c>
       <c r="L387" s="10"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="20"/>
       <c r="B388" s="22"/>
+      <c r="C388" s="54"/>
       <c r="D388" s="7"/>
+      <c r="E388" s="15">
+        <v>3</v>
+      </c>
+      <c r="F388" s="44" t="s">
+        <v>544</v>
+      </c>
       <c r="L388" s="10"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="20"/>
+      <c r="B389" s="54"/>
+      <c r="C389" s="54"/>
       <c r="D389" s="7"/>
-      <c r="E389" s="7"/>
+      <c r="E389" s="7">
+        <v>4</v>
+      </c>
+      <c r="F389" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="G389" s="44" t="s">
+        <v>126</v>
+      </c>
       <c r="I389" s="18"/>
       <c r="L389" s="10"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B390" s="54"/>
+      <c r="C390" s="54"/>
+      <c r="E390" s="15">
+        <v>5</v>
+      </c>
+      <c r="F390" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="G390" s="44" t="s">
+        <v>126</v>
+      </c>
       <c r="L390" s="10"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L391" s="10"/>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B391" s="54"/>
+      <c r="C391" s="54"/>
+      <c r="E391" s="15">
+        <v>6</v>
+      </c>
+      <c r="F391" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="G391" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="L391" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M391" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B392" s="54"/>
+      <c r="C392" s="54"/>
+      <c r="E392" s="15">
+        <v>7</v>
+      </c>
+      <c r="F392" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="G392" s="44" t="s">
+        <v>549</v>
+      </c>
       <c r="L392" s="10"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="20"/>
+      <c r="B393" s="54"/>
+      <c r="C393" s="54"/>
       <c r="D393" s="9"/>
-      <c r="E393" s="7"/>
+      <c r="E393" s="7">
+        <v>8</v>
+      </c>
+      <c r="F393" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="G393" s="44" t="s">
+        <v>551</v>
+      </c>
       <c r="I393" s="18"/>
+      <c r="K393" s="9" t="s">
+        <v>487</v>
+      </c>
       <c r="L393" s="10"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="20"/>
       <c r="D394" s="9"/>
       <c r="E394" s="7"/>
       <c r="L394" s="10"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A395" s="20"/>
-      <c r="D395" s="7"/>
-      <c r="E395" s="7"/>
+    <row r="395" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A395" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B395" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C395" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E395" s="7">
+        <v>1</v>
+      </c>
+      <c r="F395" s="44" t="s">
+        <v>561</v>
+      </c>
       <c r="L395" s="10"/>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="20"/>
       <c r="D396" s="7"/>
-      <c r="E396" s="7"/>
+      <c r="E396" s="7">
+        <v>2</v>
+      </c>
+      <c r="F396" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="G396" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="L396" s="10"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="20"/>
       <c r="D397" s="9"/>
-      <c r="E397" s="7"/>
+      <c r="E397" s="7">
+        <v>3</v>
+      </c>
+      <c r="F397" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="G397" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="I397" s="18"/>
       <c r="L397" s="10"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="20"/>
       <c r="D398" s="7"/>
-      <c r="E398" s="7"/>
-      <c r="L398" s="10"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E398" s="7">
+        <v>4</v>
+      </c>
+      <c r="F398" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="G398" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="K398" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L398" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="20"/>
       <c r="D399" s="9"/>
       <c r="E399" s="7"/>
       <c r="I399" s="18"/>
       <c r="L399" s="10"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A400" s="20"/>
-      <c r="D400" s="7"/>
-      <c r="E400" s="7"/>
+    <row r="400" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A400" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B400" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C400" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E400" s="7">
+        <v>1</v>
+      </c>
+      <c r="F400" s="44" t="s">
+        <v>561</v>
+      </c>
       <c r="L400" s="10"/>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="20"/>
       <c r="D401" s="9"/>
-      <c r="E401" s="7"/>
+      <c r="E401" s="7">
+        <v>2</v>
+      </c>
+      <c r="F401" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="G401" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="I401" s="18"/>
       <c r="L401" s="10"/>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="20"/>
       <c r="D402" s="7"/>
-      <c r="E402" s="7"/>
+      <c r="E402" s="7">
+        <v>3</v>
+      </c>
+      <c r="F402" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="G402" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="L402" s="10"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="20"/>
       <c r="D403" s="9"/>
-      <c r="E403" s="7"/>
+      <c r="E403" s="7">
+        <v>4</v>
+      </c>
+      <c r="F403" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="G403" s="44" t="s">
+        <v>557</v>
+      </c>
       <c r="I403" s="18"/>
       <c r="L403" s="10"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L404" s="10"/>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="E404" s="15">
+        <v>5</v>
+      </c>
+      <c r="F404" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="G404" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="K404" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L404" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="20"/>
       <c r="D405" s="9"/>
       <c r="E405" s="7"/>
       <c r="I405" s="18"/>
       <c r="L405" s="10"/>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A406" s="20"/>
-      <c r="D406" s="9"/>
-      <c r="E406" s="7"/>
+    <row r="406" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A406" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B406" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C406" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D406" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E406" s="7">
+        <v>1</v>
+      </c>
+      <c r="F406" s="44" t="s">
+        <v>561</v>
+      </c>
       <c r="I406" s="18"/>
       <c r="L406" s="10"/>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="20"/>
       <c r="D407" s="9"/>
-      <c r="E407" s="7"/>
+      <c r="E407" s="7">
+        <v>2</v>
+      </c>
+      <c r="F407" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="G407" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="I407" s="18"/>
       <c r="L407" s="10"/>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="20"/>
       <c r="D408" s="9"/>
-      <c r="E408" s="7"/>
+      <c r="E408" s="7">
+        <v>3</v>
+      </c>
+      <c r="F408" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="G408" s="44" t="s">
+        <v>515</v>
+      </c>
       <c r="I408" s="18"/>
       <c r="L408" s="10"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="20"/>
       <c r="D409" s="9"/>
-      <c r="E409" s="7"/>
+      <c r="E409" s="7">
+        <v>4</v>
+      </c>
+      <c r="F409" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="G409" s="44" t="s">
+        <v>557</v>
+      </c>
       <c r="I409" s="18"/>
       <c r="L409" s="10"/>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="20"/>
       <c r="D410" s="9"/>
-      <c r="E410" s="7"/>
+      <c r="E410" s="7">
+        <v>5</v>
+      </c>
+      <c r="F410" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="G410" s="44" t="s">
+        <v>566</v>
+      </c>
       <c r="I410" s="18"/>
-      <c r="L410" s="10"/>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K410" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L410" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="20"/>
       <c r="D411" s="9"/>
       <c r="E411" s="7"/>
       <c r="I411" s="18"/>
       <c r="L411" s="10"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A412" s="20"/>
-      <c r="D412" s="9"/>
-      <c r="E412" s="7"/>
+    <row r="412" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A412" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="B412" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C412" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E412" s="7">
+        <v>1</v>
+      </c>
+      <c r="F412" s="44" t="s">
+        <v>569</v>
+      </c>
       <c r="I412" s="18"/>
       <c r="L412" s="10"/>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="20"/>
       <c r="D413" s="9"/>
-      <c r="E413" s="7"/>
+      <c r="E413" s="7">
+        <v>2</v>
+      </c>
+      <c r="F413" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="G413" s="44" t="s">
+        <v>571</v>
+      </c>
       <c r="I413" s="18"/>
       <c r="L413" s="10"/>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="20"/>
       <c r="D414" s="9"/>
-      <c r="E414" s="7"/>
+      <c r="E414" s="7">
+        <v>3</v>
+      </c>
+      <c r="F414" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="G414" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="H414" s="44" t="s">
+        <v>574</v>
+      </c>
       <c r="I414" s="18"/>
-      <c r="L414" s="10"/>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K414" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L414" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M414" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="20"/>
       <c r="D415" s="9"/>
       <c r="E415" s="7"/>
       <c r="I415" s="18"/>
       <c r="L415" s="10"/>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A416" s="20"/>
-      <c r="D416" s="7"/>
-      <c r="E416" s="7"/>
+    <row r="416" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A416" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="B416" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C416" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E416" s="7">
+        <v>1</v>
+      </c>
+      <c r="F416" s="44" t="s">
+        <v>569</v>
+      </c>
       <c r="L416" s="10"/>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="20"/>
-      <c r="D417" s="7"/>
-      <c r="E417" s="7"/>
+      <c r="B417" s="54"/>
+      <c r="C417" s="54"/>
+      <c r="D417" s="9"/>
+      <c r="E417" s="7">
+        <v>2</v>
+      </c>
+      <c r="F417" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="G417" s="44" t="s">
+        <v>571</v>
+      </c>
       <c r="L417" s="10"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="20"/>
-      <c r="D418" s="7"/>
-      <c r="E418" s="7"/>
+      <c r="B418" s="54"/>
+      <c r="C418" s="54"/>
+      <c r="D418" s="9"/>
+      <c r="E418" s="7">
+        <v>3</v>
+      </c>
+      <c r="F418" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="G418" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="H418" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="J418" s="9" t="s">
+        <v>575</v>
+      </c>
       <c r="L418" s="10"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="20"/>
       <c r="D419" s="9"/>
-      <c r="E419" s="7"/>
+      <c r="E419" s="7">
+        <v>4</v>
+      </c>
+      <c r="F419" s="44" t="s">
+        <v>577</v>
+      </c>
+      <c r="G419" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="H419" s="44" t="s">
+        <v>579</v>
+      </c>
       <c r="I419" s="18"/>
-      <c r="L419" s="10"/>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K419" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="L419" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M419" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="20"/>
       <c r="D420" s="9"/>
       <c r="E420" s="7"/>
       <c r="I420" s="18"/>
       <c r="L420" s="10"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="20"/>
       <c r="D421" s="9"/>
       <c r="E421" s="7"/>
       <c r="I421" s="18"/>
       <c r="L421" s="10"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="20"/>
       <c r="D422" s="9"/>
       <c r="E422" s="7"/>
       <c r="I422" s="18"/>
       <c r="L422" s="10"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="20"/>
       <c r="D423" s="9"/>
       <c r="E423" s="7"/>
       <c r="L423" s="10"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="20"/>
       <c r="D424" s="9"/>
       <c r="E424" s="7"/>
       <c r="I424" s="18"/>
       <c r="L424" s="10"/>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="20"/>
       <c r="D425" s="9"/>
       <c r="E425" s="7"/>
       <c r="I425" s="18"/>
       <c r="L425" s="10"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="20"/>
       <c r="D426" s="9"/>
       <c r="E426" s="7"/>
       <c r="L426" s="10"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="20"/>
       <c r="D427" s="9"/>
       <c r="E427" s="7"/>
       <c r="I427" s="18"/>
       <c r="L427" s="10"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="20"/>
       <c r="D428" s="9"/>
       <c r="E428" s="7"/>
       <c r="I428" s="18"/>
       <c r="L428" s="10"/>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="20"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
       <c r="I429" s="18"/>
       <c r="L429" s="10"/>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="20"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
       <c r="I430" s="18"/>
       <c r="L430" s="10"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="20"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
       <c r="I431" s="18"/>
       <c r="L431" s="10"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="20"/>
       <c r="D432" s="9"/>
       <c r="E432" s="7"/>
@@ -13164,6 +13644,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D184:D190"/>
+    <mergeCell ref="D192:D199"/>
+    <mergeCell ref="D201:D209"/>
+    <mergeCell ref="D151:D156"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="D170:D175"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="D133:D140"/>
+    <mergeCell ref="D142:D149"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D25:D33"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="D84:D94"/>
+    <mergeCell ref="D96:D104"/>
     <mergeCell ref="D263:D270"/>
     <mergeCell ref="D272:D278"/>
     <mergeCell ref="D222:D232"/>
@@ -13171,29 +13674,6 @@
     <mergeCell ref="D234:D242"/>
     <mergeCell ref="D244:D251"/>
     <mergeCell ref="D253:D261"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D64:D75"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="D84:D94"/>
-    <mergeCell ref="D96:D104"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D25:D33"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="D119:D124"/>
-    <mergeCell ref="D133:D140"/>
-    <mergeCell ref="D142:D149"/>
-    <mergeCell ref="D184:D190"/>
-    <mergeCell ref="D192:D199"/>
-    <mergeCell ref="D201:D209"/>
-    <mergeCell ref="D151:D156"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="D170:D175"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K693:K889" xr:uid="{00000000-0002-0000-0000-000000000000}">
